--- a/dataIn/resultsmanCefalu.xlsx
+++ b/dataIn/resultsmanCefalu.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,9 +44,6 @@
     <t>Club</t>
   </si>
   <si>
-    <t>Rang</t>
-  </si>
-  <si>
     <t>Category</t>
   </si>
   <si>
@@ -3347,9 +3344,6 @@
     <t>136</t>
   </si>
   <si>
-    <t>MURO'</t>
-  </si>
-  <si>
     <t>29/04/1998</t>
   </si>
   <si>
@@ -3507,6 +3501,12 @@
   </si>
   <si>
     <t>DI MODICA</t>
+  </si>
+  <si>
+    <t>MURò</t>
+  </si>
+  <si>
+    <t>CatPos</t>
   </si>
 </sst>
 </file>
@@ -3830,8 +3830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="P48" sqref="P48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3856,28 +3856,28 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -3885,43 +3885,43 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
         <v>59</v>
       </c>
-      <c r="D2" t="s">
-        <v>60</v>
-      </c>
       <c r="E2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" t="s">
         <v>61</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
         <v>62</v>
       </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>63</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>64</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -3929,40 +3929,40 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" t="s">
         <v>70</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" t="s">
         <v>71</v>
       </c>
-      <c r="E3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
         <v>72</v>
       </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>73</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -3970,40 +3970,40 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" t="s">
         <v>79</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" t="s">
         <v>80</v>
       </c>
-      <c r="E4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
         <v>81</v>
       </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>82</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -4011,40 +4011,40 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" t="s">
         <v>88</v>
       </c>
-      <c r="E5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s">
-        <v>73</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="K5" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -4052,40 +4052,40 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" t="s">
         <v>94</v>
       </c>
-      <c r="E6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" t="s">
         <v>95</v>
       </c>
-      <c r="G6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" t="s">
-        <v>63</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="K6" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -4093,43 +4093,43 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" t="s">
         <v>101</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>102</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" t="s">
         <v>103</v>
       </c>
-      <c r="E7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
         <v>104</v>
       </c>
-      <c r="G7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>105</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>106</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -4137,43 +4137,43 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" t="s">
         <v>112</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>113</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>104</v>
+      </c>
+      <c r="I8" t="s">
         <v>114</v>
       </c>
-      <c r="E8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" t="s">
-        <v>105</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>115</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -4181,43 +4181,43 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" t="s">
         <v>121</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>122</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" t="s">
         <v>123</v>
       </c>
-      <c r="E9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" t="s">
+        <v>104</v>
+      </c>
+      <c r="I9" t="s">
         <v>124</v>
       </c>
-      <c r="G9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" t="s">
-        <v>105</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>125</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="N9" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -4225,40 +4225,40 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" t="s">
         <v>131</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
         <v>132</v>
       </c>
-      <c r="D10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>133</v>
       </c>
-      <c r="I10" t="s">
+      <c r="K10" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -4266,40 +4266,40 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" t="s">
         <v>139</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>140</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" t="s">
         <v>141</v>
       </c>
-      <c r="E11" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" t="s">
-        <v>82</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="K11" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="N11" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -4307,40 +4307,40 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" t="s">
         <v>147</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>148</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" t="s">
+        <v>132</v>
+      </c>
+      <c r="I12" t="s">
         <v>149</v>
       </c>
-      <c r="E12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" t="s">
-        <v>133</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="K12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L12" s="1" t="s">
+      <c r="M12" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="N12" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -4348,40 +4348,40 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C13" t="s">
         <v>154</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>155</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s">
         <v>156</v>
       </c>
-      <c r="E13" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>157</v>
       </c>
-      <c r="I13" t="s">
+      <c r="K13" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="L13" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M13" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="L13" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="M13" s="1" t="s">
+      <c r="N13" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -4389,43 +4389,43 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>161</v>
+      </c>
+      <c r="C14" t="s">
         <v>162</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>163</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" t="s">
+        <v>104</v>
+      </c>
+      <c r="I14" t="s">
         <v>164</v>
       </c>
-      <c r="E14" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" t="s">
-        <v>105</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>165</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="L14" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="M14" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N14" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -4433,43 +4433,43 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>169</v>
+      </c>
+      <c r="C15" t="s">
         <v>170</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" t="s">
         <v>171</v>
       </c>
-      <c r="D15" t="s">
-        <v>80</v>
-      </c>
-      <c r="E15" t="s">
-        <v>61</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" t="s">
+        <v>156</v>
+      </c>
+      <c r="I15" t="s">
         <v>172</v>
       </c>
-      <c r="G15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" t="s">
-        <v>157</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>173</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="L15" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="M15" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="N15" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -4477,43 +4477,43 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>178</v>
+      </c>
+      <c r="C16" t="s">
         <v>179</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>180</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" t="s">
         <v>181</v>
       </c>
-      <c r="E16" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>182</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>183</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="L16" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="M16" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="N16" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -4521,40 +4521,40 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C17" t="s">
         <v>189</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>190</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" t="s">
         <v>191</v>
       </c>
-      <c r="E17" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" t="s">
         <v>192</v>
       </c>
-      <c r="G17" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>193</v>
       </c>
-      <c r="I17" t="s">
+      <c r="K17" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="L17" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="M17" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="N17" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -4562,40 +4562,40 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>198</v>
+      </c>
+      <c r="C18" t="s">
         <v>199</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" t="s">
         <v>200</v>
       </c>
-      <c r="D18" t="s">
-        <v>88</v>
-      </c>
-      <c r="E18" t="s">
-        <v>61</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" t="s">
+        <v>104</v>
+      </c>
+      <c r="I18" t="s">
         <v>201</v>
       </c>
-      <c r="G18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H18" t="s">
-        <v>105</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="K18" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="L18" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="M18" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="L18" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="M18" s="1" t="s">
+      <c r="N18" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -4603,40 +4603,40 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>205</v>
+      </c>
+      <c r="C19" t="s">
         <v>206</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" t="s">
         <v>207</v>
       </c>
-      <c r="D19" t="s">
-        <v>103</v>
-      </c>
-      <c r="E19" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" t="s">
+        <v>81</v>
+      </c>
+      <c r="I19" t="s">
         <v>208</v>
       </c>
-      <c r="G19" t="s">
-        <v>30</v>
-      </c>
-      <c r="H19" t="s">
-        <v>82</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="K19" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="L19" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="M19" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="N19" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -4644,40 +4644,40 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" t="s">
         <v>214</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>215</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" t="s">
+        <v>192</v>
+      </c>
+      <c r="I20" t="s">
         <v>216</v>
       </c>
-      <c r="E20" t="s">
-        <v>61</v>
-      </c>
-      <c r="F20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" t="s">
-        <v>193</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="K20" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="L20" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="M20" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="L20" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="M20" s="1" t="s">
+      <c r="N20" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -4685,43 +4685,43 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>220</v>
+      </c>
+      <c r="C21" t="s">
         <v>221</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>222</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" t="s">
+        <v>132</v>
+      </c>
+      <c r="I21" t="s">
         <v>223</v>
       </c>
-      <c r="E21" t="s">
-        <v>61</v>
-      </c>
-      <c r="F21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" t="s">
-        <v>133</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>224</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L21" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="K21" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="L21" s="1" t="s">
+      <c r="M21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N21" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -4729,43 +4729,43 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>227</v>
+      </c>
+      <c r="C22" t="s">
         <v>228</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>229</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" t="s">
+        <v>72</v>
+      </c>
+      <c r="I22" t="s">
         <v>230</v>
       </c>
-      <c r="E22" t="s">
-        <v>61</v>
-      </c>
-      <c r="F22" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" t="s">
-        <v>30</v>
-      </c>
-      <c r="H22" t="s">
-        <v>73</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>231</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="L22" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="M22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N22" s="1" t="s">
         <v>234</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -4773,43 +4773,43 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>235</v>
+      </c>
+      <c r="C23" t="s">
+        <v>228</v>
+      </c>
+      <c r="D23" t="s">
         <v>236</v>
       </c>
-      <c r="C23" t="s">
-        <v>229</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" t="s">
         <v>237</v>
       </c>
-      <c r="E23" t="s">
-        <v>61</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" t="s">
+        <v>62</v>
+      </c>
+      <c r="I23" t="s">
         <v>238</v>
       </c>
-      <c r="G23" t="s">
-        <v>30</v>
-      </c>
-      <c r="H23" t="s">
-        <v>63</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>239</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="L23" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="L23" s="1" t="s">
+      <c r="M23" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="M23" s="1" t="s">
-        <v>243</v>
-      </c>
       <c r="N23" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -4817,43 +4817,43 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>243</v>
+      </c>
+      <c r="C24" t="s">
         <v>244</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>245</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24" t="s">
+        <v>192</v>
+      </c>
+      <c r="I24" t="s">
         <v>246</v>
       </c>
-      <c r="E24" t="s">
-        <v>61</v>
-      </c>
-      <c r="F24" t="s">
-        <v>55</v>
-      </c>
-      <c r="G24" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" t="s">
-        <v>193</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>247</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="L24" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="L24" s="1" t="s">
+      <c r="M24" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="M24" s="1" t="s">
+      <c r="N24" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -4861,43 +4861,43 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>252</v>
+      </c>
+      <c r="C25" t="s">
         <v>253</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>254</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" t="s">
         <v>255</v>
       </c>
-      <c r="E25" t="s">
-        <v>61</v>
-      </c>
-      <c r="F25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" t="s">
-        <v>14</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>256</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>257</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="L25" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="L25" s="1" t="s">
+      <c r="M25" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="M25" s="1" t="s">
+      <c r="N25" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -4905,43 +4905,43 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>262</v>
+      </c>
+      <c r="C26" t="s">
         <v>263</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>264</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26" t="s">
         <v>265</v>
       </c>
-      <c r="E26" t="s">
-        <v>61</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
+        <v>56</v>
+      </c>
+      <c r="H26" t="s">
+        <v>104</v>
+      </c>
+      <c r="I26" t="s">
         <v>266</v>
       </c>
-      <c r="G26" t="s">
-        <v>57</v>
-      </c>
-      <c r="H26" t="s">
-        <v>105</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>267</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="L26" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="L26" s="1" t="s">
+      <c r="M26" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="M26" s="1" t="s">
+      <c r="N26" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -4949,43 +4949,43 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
+        <v>272</v>
+      </c>
+      <c r="C27" t="s">
         <v>273</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
+        <v>79</v>
+      </c>
+      <c r="E27" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" t="s">
         <v>274</v>
       </c>
-      <c r="D27" t="s">
-        <v>80</v>
-      </c>
-      <c r="E27" t="s">
-        <v>61</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
+        <v>130</v>
+      </c>
+      <c r="H27" t="s">
+        <v>104</v>
+      </c>
+      <c r="I27" t="s">
         <v>275</v>
       </c>
-      <c r="G27" t="s">
-        <v>131</v>
-      </c>
-      <c r="H27" t="s">
-        <v>105</v>
-      </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>276</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="K27" s="1" t="s">
+      <c r="L27" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="L27" s="1" t="s">
+      <c r="M27" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="M27" s="1" t="s">
+      <c r="N27" s="1" t="s">
         <v>280</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -4993,43 +4993,43 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>281</v>
+      </c>
+      <c r="C28" t="s">
         <v>282</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
+        <v>229</v>
+      </c>
+      <c r="E28" t="s">
+        <v>60</v>
+      </c>
+      <c r="F28" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28" t="s">
+        <v>33</v>
+      </c>
+      <c r="H28" t="s">
+        <v>192</v>
+      </c>
+      <c r="I28" t="s">
         <v>283</v>
       </c>
-      <c r="D28" t="s">
-        <v>230</v>
-      </c>
-      <c r="E28" t="s">
-        <v>61</v>
-      </c>
-      <c r="F28" t="s">
-        <v>29</v>
-      </c>
-      <c r="G28" t="s">
-        <v>34</v>
-      </c>
-      <c r="H28" t="s">
-        <v>193</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>284</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="L28" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="L28" s="1" t="s">
+      <c r="M28" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="M28" s="1" t="s">
+      <c r="N28" s="1" t="s">
         <v>288</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -5037,40 +5037,40 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>289</v>
+      </c>
+      <c r="C29" t="s">
         <v>290</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
+        <v>102</v>
+      </c>
+      <c r="E29" t="s">
+        <v>60</v>
+      </c>
+      <c r="F29" t="s">
+        <v>37</v>
+      </c>
+      <c r="G29" t="s">
+        <v>33</v>
+      </c>
+      <c r="H29" t="s">
+        <v>132</v>
+      </c>
+      <c r="I29" t="s">
         <v>291</v>
       </c>
-      <c r="D29" t="s">
-        <v>103</v>
-      </c>
-      <c r="E29" t="s">
-        <v>61</v>
-      </c>
-      <c r="F29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G29" t="s">
-        <v>34</v>
-      </c>
-      <c r="H29" t="s">
-        <v>133</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="K29" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="L29" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="L29" s="1" t="s">
-        <v>294</v>
-      </c>
       <c r="M29" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -5078,40 +5078,40 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>294</v>
+      </c>
+      <c r="C30" t="s">
         <v>295</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>296</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F30" t="s">
+        <v>37</v>
+      </c>
+      <c r="G30" t="s">
         <v>297</v>
       </c>
-      <c r="E30" t="s">
-        <v>61</v>
-      </c>
-      <c r="F30" t="s">
-        <v>38</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
+        <v>104</v>
+      </c>
+      <c r="I30" t="s">
         <v>298</v>
       </c>
-      <c r="H30" t="s">
-        <v>105</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="K30" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="K30" s="1" t="s">
+      <c r="L30" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="L30" s="1" t="s">
+      <c r="M30" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="N30" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -5119,43 +5119,43 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C31" t="s">
+        <v>302</v>
+      </c>
+      <c r="D31" t="s">
         <v>303</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>304</v>
       </c>
-      <c r="E31" t="s">
-        <v>61</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
+        <v>111</v>
+      </c>
+      <c r="H31" t="s">
+        <v>104</v>
+      </c>
+      <c r="I31" t="s">
         <v>305</v>
       </c>
-      <c r="G31" t="s">
-        <v>112</v>
-      </c>
-      <c r="H31" t="s">
-        <v>105</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>306</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="L31" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="L31" s="1" t="s">
+      <c r="M31" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="M31" s="1" t="s">
+      <c r="N31" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -5163,43 +5163,43 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
+        <v>311</v>
+      </c>
+      <c r="C32" t="s">
         <v>312</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
+        <v>264</v>
+      </c>
+      <c r="E32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" t="s">
         <v>313</v>
       </c>
-      <c r="D32" t="s">
-        <v>265</v>
-      </c>
-      <c r="E32" t="s">
-        <v>61</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" t="s">
+        <v>255</v>
+      </c>
+      <c r="I32" t="s">
         <v>314</v>
       </c>
-      <c r="G32" t="s">
-        <v>17</v>
-      </c>
-      <c r="H32" t="s">
-        <v>256</v>
-      </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>315</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="L32" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="L32" s="1" t="s">
+      <c r="M32" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="M32" s="1" t="s">
+      <c r="N32" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -5207,43 +5207,43 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
+        <v>320</v>
+      </c>
+      <c r="C33" t="s">
         <v>321</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>322</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" t="s">
+        <v>48</v>
+      </c>
+      <c r="G33" t="s">
+        <v>29</v>
+      </c>
+      <c r="H33" t="s">
+        <v>156</v>
+      </c>
+      <c r="I33" t="s">
         <v>323</v>
       </c>
-      <c r="E33" t="s">
-        <v>61</v>
-      </c>
-      <c r="F33" t="s">
-        <v>49</v>
-      </c>
-      <c r="G33" t="s">
-        <v>30</v>
-      </c>
-      <c r="H33" t="s">
-        <v>157</v>
-      </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>324</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="K33" s="1" t="s">
+      <c r="L33" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="L33" s="1" t="s">
+      <c r="M33" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="M33" s="1" t="s">
+      <c r="N33" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -5251,40 +5251,40 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
+        <v>329</v>
+      </c>
+      <c r="C34" t="s">
         <v>330</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
+        <v>321</v>
+      </c>
+      <c r="E34" t="s">
+        <v>60</v>
+      </c>
+      <c r="F34" t="s">
         <v>331</v>
       </c>
-      <c r="D34" t="s">
-        <v>322</v>
-      </c>
-      <c r="E34" t="s">
-        <v>61</v>
-      </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
+        <v>120</v>
+      </c>
+      <c r="H34" t="s">
+        <v>104</v>
+      </c>
+      <c r="I34" t="s">
         <v>332</v>
       </c>
-      <c r="G34" t="s">
-        <v>121</v>
-      </c>
-      <c r="H34" t="s">
-        <v>105</v>
-      </c>
-      <c r="I34" t="s">
+      <c r="K34" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="K34" s="1" t="s">
+      <c r="L34" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="M34" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="L34" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="M34" s="1" t="s">
+      <c r="N34" s="1" t="s">
         <v>335</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
@@ -5292,43 +5292,43 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
+        <v>336</v>
+      </c>
+      <c r="C35" t="s">
         <v>337</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>338</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
+        <v>60</v>
+      </c>
+      <c r="F35" t="s">
+        <v>31</v>
+      </c>
+      <c r="G35" t="s">
+        <v>42</v>
+      </c>
+      <c r="H35" t="s">
+        <v>132</v>
+      </c>
+      <c r="I35" t="s">
         <v>339</v>
       </c>
-      <c r="E35" t="s">
-        <v>61</v>
-      </c>
-      <c r="F35" t="s">
-        <v>32</v>
-      </c>
-      <c r="G35" t="s">
-        <v>43</v>
-      </c>
-      <c r="H35" t="s">
-        <v>133</v>
-      </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>340</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="K35" s="1" t="s">
+      <c r="L35" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="L35" s="1" t="s">
+      <c r="M35" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N35" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="N35" s="1" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -5336,43 +5336,43 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
+        <v>344</v>
+      </c>
+      <c r="C36" t="s">
         <v>345</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
+        <v>102</v>
+      </c>
+      <c r="E36" t="s">
+        <v>60</v>
+      </c>
+      <c r="F36" t="s">
         <v>346</v>
       </c>
-      <c r="D36" t="s">
-        <v>103</v>
-      </c>
-      <c r="E36" t="s">
-        <v>61</v>
-      </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
+        <v>42</v>
+      </c>
+      <c r="H36" t="s">
+        <v>192</v>
+      </c>
+      <c r="I36" t="s">
         <v>347</v>
       </c>
-      <c r="G36" t="s">
-        <v>43</v>
-      </c>
-      <c r="H36" t="s">
-        <v>193</v>
-      </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>348</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K36" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="K36" s="1" t="s">
+      <c r="L36" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="L36" s="1" t="s">
+      <c r="M36" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N36" s="1" t="s">
         <v>351</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N36" s="1" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -5380,43 +5380,43 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
+        <v>352</v>
+      </c>
+      <c r="C37" t="s">
         <v>353</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
+        <v>79</v>
+      </c>
+      <c r="E37" t="s">
+        <v>60</v>
+      </c>
+      <c r="F37" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" t="s">
+        <v>153</v>
+      </c>
+      <c r="H37" t="s">
+        <v>104</v>
+      </c>
+      <c r="I37" t="s">
         <v>354</v>
       </c>
-      <c r="D37" t="s">
-        <v>80</v>
-      </c>
-      <c r="E37" t="s">
-        <v>61</v>
-      </c>
-      <c r="F37" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" t="s">
-        <v>154</v>
-      </c>
-      <c r="H37" t="s">
-        <v>105</v>
-      </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>355</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L37" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="K37" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L37" s="1" t="s">
+      <c r="M37" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="M37" s="1" t="s">
+      <c r="N37" s="1" t="s">
         <v>358</v>
-      </c>
-      <c r="N37" s="1" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -5424,43 +5424,43 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
+        <v>359</v>
+      </c>
+      <c r="C38" t="s">
         <v>360</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>361</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
+        <v>60</v>
+      </c>
+      <c r="F38" t="s">
         <v>362</v>
       </c>
-      <c r="E38" t="s">
-        <v>61</v>
-      </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
+        <v>29</v>
+      </c>
+      <c r="H38" t="s">
+        <v>255</v>
+      </c>
+      <c r="I38" t="s">
         <v>363</v>
       </c>
-      <c r="G38" t="s">
-        <v>30</v>
-      </c>
-      <c r="H38" t="s">
-        <v>256</v>
-      </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>364</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="K38" s="1" t="s">
+      <c r="L38" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="L38" s="1" t="s">
+      <c r="M38" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="M38" s="1" t="s">
+      <c r="N38" s="1" t="s">
         <v>368</v>
-      </c>
-      <c r="N38" s="1" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
@@ -5468,43 +5468,43 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
+        <v>369</v>
+      </c>
+      <c r="C39" t="s">
         <v>370</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
+        <v>254</v>
+      </c>
+      <c r="E39" t="s">
+        <v>60</v>
+      </c>
+      <c r="F39" t="s">
         <v>371</v>
       </c>
-      <c r="D39" t="s">
+      <c r="G39" t="s">
+        <v>33</v>
+      </c>
+      <c r="H39" t="s">
         <v>255</v>
       </c>
-      <c r="E39" t="s">
-        <v>61</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="I39" t="s">
         <v>372</v>
       </c>
-      <c r="G39" t="s">
-        <v>34</v>
-      </c>
-      <c r="H39" t="s">
-        <v>256</v>
-      </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>373</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="K39" s="1" t="s">
+      <c r="L39" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="L39" s="1" t="s">
+      <c r="M39" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="M39" s="1" t="s">
+      <c r="N39" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="N39" s="1" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -5512,43 +5512,43 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
+        <v>378</v>
+      </c>
+      <c r="C40" t="s">
         <v>379</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
+        <v>321</v>
+      </c>
+      <c r="E40" t="s">
+        <v>60</v>
+      </c>
+      <c r="F40" t="s">
+        <v>123</v>
+      </c>
+      <c r="G40" t="s">
+        <v>146</v>
+      </c>
+      <c r="H40" t="s">
+        <v>104</v>
+      </c>
+      <c r="I40" t="s">
         <v>380</v>
       </c>
-      <c r="D40" t="s">
-        <v>322</v>
-      </c>
-      <c r="E40" t="s">
-        <v>61</v>
-      </c>
-      <c r="F40" t="s">
-        <v>124</v>
-      </c>
-      <c r="G40" t="s">
-        <v>147</v>
-      </c>
-      <c r="H40" t="s">
-        <v>105</v>
-      </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
         <v>381</v>
       </c>
-      <c r="J40" t="s">
+      <c r="K40" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="K40" s="1" t="s">
+      <c r="L40" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="L40" s="1" t="s">
+      <c r="M40" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="M40" s="1" t="s">
+      <c r="N40" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="N40" s="1" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
@@ -5556,43 +5556,43 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
+        <v>394</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D41" t="s">
         <v>395</v>
       </c>
-      <c r="C41" t="s">
-        <v>1160</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
+        <v>60</v>
+      </c>
+      <c r="F41" t="s">
         <v>396</v>
       </c>
-      <c r="E41" t="s">
-        <v>61</v>
-      </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
+        <v>42</v>
+      </c>
+      <c r="H41" t="s">
+        <v>255</v>
+      </c>
+      <c r="I41" t="s">
         <v>397</v>
       </c>
-      <c r="G41" t="s">
-        <v>43</v>
-      </c>
-      <c r="H41" t="s">
-        <v>256</v>
-      </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>398</v>
       </c>
-      <c r="J41" t="s">
+      <c r="K41" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="L41" s="1" t="s">
         <v>399</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>400</v>
       </c>
       <c r="M41" s="1">
         <v>9.2939814814814812E-3</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="O41" s="1"/>
     </row>
@@ -5601,43 +5601,43 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
+        <v>386</v>
+      </c>
+      <c r="C42" t="s">
         <v>387</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
+        <v>229</v>
+      </c>
+      <c r="E42" t="s">
+        <v>60</v>
+      </c>
+      <c r="F42" t="s">
+        <v>54</v>
+      </c>
+      <c r="G42" t="s">
+        <v>198</v>
+      </c>
+      <c r="H42" t="s">
+        <v>104</v>
+      </c>
+      <c r="I42" t="s">
         <v>388</v>
       </c>
-      <c r="D42" t="s">
-        <v>230</v>
-      </c>
-      <c r="E42" t="s">
-        <v>61</v>
-      </c>
-      <c r="F42" t="s">
-        <v>55</v>
-      </c>
-      <c r="G42" t="s">
-        <v>199</v>
-      </c>
-      <c r="H42" t="s">
-        <v>105</v>
-      </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>389</v>
       </c>
-      <c r="J42" t="s">
+      <c r="K42" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="K42" s="1" t="s">
+      <c r="L42" s="1" t="s">
         <v>391</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>392</v>
       </c>
       <c r="M42" s="1">
         <v>9.5486111111111101E-3</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="O42" s="1"/>
     </row>
@@ -5646,43 +5646,43 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
+        <v>401</v>
+      </c>
+      <c r="C43" t="s">
         <v>402</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>403</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
+        <v>60</v>
+      </c>
+      <c r="F43" t="s">
         <v>404</v>
       </c>
-      <c r="E43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
+        <v>56</v>
+      </c>
+      <c r="H43" t="s">
+        <v>255</v>
+      </c>
+      <c r="I43" t="s">
         <v>405</v>
       </c>
-      <c r="G43" t="s">
-        <v>57</v>
-      </c>
-      <c r="H43" t="s">
-        <v>256</v>
-      </c>
-      <c r="I43" t="s">
+      <c r="J43" t="s">
         <v>406</v>
       </c>
-      <c r="J43" t="s">
+      <c r="K43" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="K43" s="1" t="s">
+      <c r="L43" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="L43" s="1" t="s">
+      <c r="M43" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="M43" s="1" t="s">
+      <c r="N43" s="1" t="s">
         <v>410</v>
-      </c>
-      <c r="N43" s="1" t="s">
-        <v>411</v>
       </c>
       <c r="O43" s="1"/>
     </row>
@@ -5691,43 +5691,43 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
+        <v>411</v>
+      </c>
+      <c r="C44" t="s">
         <v>412</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>413</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
+        <v>60</v>
+      </c>
+      <c r="F44" t="s">
         <v>414</v>
       </c>
-      <c r="E44" t="s">
-        <v>61</v>
-      </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
+        <v>281</v>
+      </c>
+      <c r="H44" t="s">
+        <v>104</v>
+      </c>
+      <c r="I44" t="s">
         <v>415</v>
       </c>
-      <c r="G44" t="s">
-        <v>282</v>
-      </c>
-      <c r="H44" t="s">
-        <v>105</v>
-      </c>
-      <c r="I44" t="s">
+      <c r="J44" t="s">
         <v>416</v>
       </c>
-      <c r="J44" t="s">
+      <c r="K44" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="K44" s="1" t="s">
+      <c r="L44" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="L44" s="1" t="s">
+      <c r="M44" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="M44" s="1" t="s">
+      <c r="N44" s="1" t="s">
         <v>420</v>
-      </c>
-      <c r="N44" s="1" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
@@ -5735,43 +5735,43 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
+        <v>421</v>
+      </c>
+      <c r="C45" t="s">
         <v>422</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>423</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45" t="s">
+        <v>171</v>
+      </c>
+      <c r="G45" t="s">
+        <v>205</v>
+      </c>
+      <c r="H45" t="s">
+        <v>104</v>
+      </c>
+      <c r="I45" t="s">
         <v>424</v>
       </c>
-      <c r="E45" t="s">
-        <v>61</v>
-      </c>
-      <c r="F45" t="s">
-        <v>172</v>
-      </c>
-      <c r="G45" t="s">
-        <v>206</v>
-      </c>
-      <c r="H45" t="s">
-        <v>105</v>
-      </c>
-      <c r="I45" t="s">
+      <c r="J45" t="s">
         <v>425</v>
       </c>
-      <c r="J45" t="s">
+      <c r="K45" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="K45" s="1" t="s">
+      <c r="L45" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="L45" s="1" t="s">
+      <c r="M45" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="M45" s="1" t="s">
+      <c r="N45" s="1" t="s">
         <v>429</v>
-      </c>
-      <c r="N45" s="1" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
@@ -5779,43 +5779,43 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
+        <v>430</v>
+      </c>
+      <c r="C46" t="s">
         <v>431</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>432</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
+        <v>60</v>
+      </c>
+      <c r="F46" t="s">
+        <v>346</v>
+      </c>
+      <c r="G46" t="s">
+        <v>130</v>
+      </c>
+      <c r="H46" t="s">
+        <v>255</v>
+      </c>
+      <c r="I46" t="s">
         <v>433</v>
       </c>
-      <c r="E46" t="s">
-        <v>61</v>
-      </c>
-      <c r="F46" t="s">
-        <v>347</v>
-      </c>
-      <c r="G46" t="s">
-        <v>131</v>
-      </c>
-      <c r="H46" t="s">
-        <v>256</v>
-      </c>
-      <c r="I46" t="s">
+      <c r="J46" t="s">
         <v>434</v>
       </c>
-      <c r="J46" t="s">
+      <c r="K46" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="L46" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="K46" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="L46" s="1" t="s">
+      <c r="M46" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="M46" s="1" t="s">
+      <c r="N46" s="1" t="s">
         <v>437</v>
-      </c>
-      <c r="N46" s="1" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
@@ -5823,43 +5823,43 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
+        <v>438</v>
+      </c>
+      <c r="C47" t="s">
         <v>439</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
+        <v>163</v>
+      </c>
+      <c r="E47" t="s">
+        <v>60</v>
+      </c>
+      <c r="F47" t="s">
+        <v>41</v>
+      </c>
+      <c r="G47" t="s">
+        <v>13</v>
+      </c>
+      <c r="H47" t="s">
         <v>440</v>
       </c>
-      <c r="D47" t="s">
-        <v>164</v>
-      </c>
-      <c r="E47" t="s">
-        <v>61</v>
-      </c>
-      <c r="F47" t="s">
-        <v>42</v>
-      </c>
-      <c r="G47" t="s">
-        <v>14</v>
-      </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>441</v>
       </c>
-      <c r="I47" t="s">
+      <c r="J47" t="s">
         <v>442</v>
       </c>
-      <c r="J47" t="s">
+      <c r="K47" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="M47" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="K47" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="L47" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="M47" s="1" t="s">
+      <c r="N47" s="1" t="s">
         <v>444</v>
-      </c>
-      <c r="N47" s="1" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
@@ -5867,43 +5867,43 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
+        <v>445</v>
+      </c>
+      <c r="C48" t="s">
         <v>446</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>447</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
+        <v>60</v>
+      </c>
+      <c r="F48" t="s">
+        <v>20</v>
+      </c>
+      <c r="G48" t="s">
+        <v>252</v>
+      </c>
+      <c r="H48" t="s">
+        <v>104</v>
+      </c>
+      <c r="I48" t="s">
         <v>448</v>
       </c>
-      <c r="E48" t="s">
-        <v>61</v>
-      </c>
-      <c r="F48" t="s">
-        <v>21</v>
-      </c>
-      <c r="G48" t="s">
-        <v>253</v>
-      </c>
-      <c r="H48" t="s">
-        <v>105</v>
-      </c>
-      <c r="I48" t="s">
+      <c r="J48" t="s">
         <v>449</v>
       </c>
-      <c r="J48" t="s">
+      <c r="K48" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="K48" s="1" t="s">
+      <c r="L48" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="L48" s="1" t="s">
+      <c r="M48" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N48" s="1" t="s">
         <v>452</v>
-      </c>
-      <c r="M48" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="N48" s="1" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
@@ -5911,40 +5911,40 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
+        <v>453</v>
+      </c>
+      <c r="C49" t="s">
         <v>454</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
+        <v>236</v>
+      </c>
+      <c r="E49" t="s">
+        <v>60</v>
+      </c>
+      <c r="F49" t="s">
         <v>455</v>
       </c>
-      <c r="D49" t="s">
-        <v>237</v>
-      </c>
-      <c r="E49" t="s">
-        <v>61</v>
-      </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
+        <v>297</v>
+      </c>
+      <c r="H49" t="s">
+        <v>255</v>
+      </c>
+      <c r="I49" t="s">
         <v>456</v>
       </c>
-      <c r="G49" t="s">
-        <v>298</v>
-      </c>
-      <c r="H49" t="s">
-        <v>256</v>
-      </c>
-      <c r="I49" t="s">
+      <c r="K49" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="K49" s="1" t="s">
+      <c r="L49" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="L49" s="1" t="s">
-        <v>459</v>
-      </c>
       <c r="M49" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
@@ -5952,43 +5952,43 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
+        <v>459</v>
+      </c>
+      <c r="C50" t="s">
         <v>460</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
+        <v>122</v>
+      </c>
+      <c r="E50" t="s">
+        <v>60</v>
+      </c>
+      <c r="F50" t="s">
         <v>461</v>
       </c>
-      <c r="D50" t="s">
-        <v>123</v>
-      </c>
-      <c r="E50" t="s">
-        <v>61</v>
-      </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
+        <v>111</v>
+      </c>
+      <c r="H50" t="s">
+        <v>255</v>
+      </c>
+      <c r="I50" t="s">
         <v>462</v>
       </c>
-      <c r="G50" t="s">
-        <v>112</v>
-      </c>
-      <c r="H50" t="s">
-        <v>256</v>
-      </c>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
         <v>463</v>
       </c>
-      <c r="J50" t="s">
+      <c r="K50" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L50" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="K50" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="L50" s="1" t="s">
+      <c r="M50" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="M50" s="1" t="s">
+      <c r="N50" s="1" t="s">
         <v>466</v>
-      </c>
-      <c r="N50" s="1" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
@@ -5996,43 +5996,43 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
+        <v>467</v>
+      </c>
+      <c r="C51" t="s">
         <v>468</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>469</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
+        <v>60</v>
+      </c>
+      <c r="F51" t="s">
+        <v>274</v>
+      </c>
+      <c r="G51" t="s">
+        <v>33</v>
+      </c>
+      <c r="H51" t="s">
+        <v>156</v>
+      </c>
+      <c r="I51" t="s">
         <v>470</v>
       </c>
-      <c r="E51" t="s">
-        <v>61</v>
-      </c>
-      <c r="F51" t="s">
-        <v>275</v>
-      </c>
-      <c r="G51" t="s">
-        <v>34</v>
-      </c>
-      <c r="H51" t="s">
-        <v>157</v>
-      </c>
-      <c r="I51" t="s">
+      <c r="J51" t="s">
         <v>471</v>
       </c>
-      <c r="J51" t="s">
+      <c r="K51" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="K51" s="1" t="s">
+      <c r="L51" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="L51" s="1" t="s">
+      <c r="M51" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="M51" s="1" t="s">
+      <c r="N51" s="1" t="s">
         <v>475</v>
-      </c>
-      <c r="N51" s="1" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
@@ -6040,43 +6040,43 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
+        <v>476</v>
+      </c>
+      <c r="C52" t="s">
         <v>477</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
+        <v>102</v>
+      </c>
+      <c r="E52" t="s">
+        <v>60</v>
+      </c>
+      <c r="F52" t="s">
+        <v>54</v>
+      </c>
+      <c r="G52" t="s">
         <v>478</v>
       </c>
-      <c r="D52" t="s">
-        <v>103</v>
-      </c>
-      <c r="E52" t="s">
-        <v>61</v>
-      </c>
-      <c r="F52" t="s">
-        <v>55</v>
-      </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
+        <v>104</v>
+      </c>
+      <c r="I52" t="s">
         <v>479</v>
       </c>
-      <c r="H52" t="s">
-        <v>105</v>
-      </c>
-      <c r="I52" t="s">
+      <c r="J52" t="s">
         <v>480</v>
       </c>
-      <c r="J52" t="s">
+      <c r="K52" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="K52" s="1" t="s">
+      <c r="L52" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="L52" s="1" t="s">
+      <c r="M52" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="M52" s="1" t="s">
+      <c r="N52" s="1" t="s">
         <v>484</v>
-      </c>
-      <c r="N52" s="1" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
@@ -6084,43 +6084,43 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
+        <v>485</v>
+      </c>
+      <c r="C53" t="s">
         <v>486</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>487</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
+        <v>60</v>
+      </c>
+      <c r="F53" t="s">
         <v>488</v>
       </c>
-      <c r="E53" t="s">
-        <v>61</v>
-      </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
+        <v>56</v>
+      </c>
+      <c r="H53" t="s">
+        <v>192</v>
+      </c>
+      <c r="I53" t="s">
         <v>489</v>
       </c>
-      <c r="G53" t="s">
-        <v>57</v>
-      </c>
-      <c r="H53" t="s">
-        <v>193</v>
-      </c>
-      <c r="I53" t="s">
+      <c r="J53" t="s">
         <v>490</v>
       </c>
-      <c r="J53" t="s">
+      <c r="K53" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="L53" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="K53" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="L53" s="1" t="s">
+      <c r="M53" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="M53" s="1" t="s">
+      <c r="N53" s="1" t="s">
         <v>493</v>
-      </c>
-      <c r="N53" s="1" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
@@ -6128,40 +6128,40 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
+        <v>494</v>
+      </c>
+      <c r="C54" t="s">
         <v>495</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
+        <v>79</v>
+      </c>
+      <c r="E54" t="s">
+        <v>60</v>
+      </c>
+      <c r="F54" t="s">
         <v>496</v>
       </c>
-      <c r="D54" t="s">
-        <v>80</v>
-      </c>
-      <c r="E54" t="s">
-        <v>61</v>
-      </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
+        <v>33</v>
+      </c>
+      <c r="H54" t="s">
+        <v>72</v>
+      </c>
+      <c r="I54" t="s">
         <v>497</v>
       </c>
-      <c r="G54" t="s">
-        <v>34</v>
-      </c>
-      <c r="H54" t="s">
-        <v>73</v>
-      </c>
-      <c r="I54" t="s">
+      <c r="K54" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="K54" s="1" t="s">
+      <c r="L54" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="L54" s="1" t="s">
+      <c r="M54" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="M54" s="1" t="s">
+      <c r="N54" s="1" t="s">
         <v>501</v>
-      </c>
-      <c r="N54" s="1" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
@@ -6169,40 +6169,40 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
+        <v>502</v>
+      </c>
+      <c r="C55" t="s">
         <v>503</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
+        <v>361</v>
+      </c>
+      <c r="E55" t="s">
+        <v>60</v>
+      </c>
+      <c r="F55" t="s">
+        <v>37</v>
+      </c>
+      <c r="G55" t="s">
+        <v>56</v>
+      </c>
+      <c r="H55" t="s">
+        <v>132</v>
+      </c>
+      <c r="I55" t="s">
         <v>504</v>
       </c>
-      <c r="D55" t="s">
-        <v>362</v>
-      </c>
-      <c r="E55" t="s">
-        <v>61</v>
-      </c>
-      <c r="F55" t="s">
-        <v>38</v>
-      </c>
-      <c r="G55" t="s">
-        <v>57</v>
-      </c>
-      <c r="H55" t="s">
-        <v>133</v>
-      </c>
-      <c r="I55" t="s">
+      <c r="K55" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="L55" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="K55" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="L55" s="1" t="s">
+      <c r="M55" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="M55" s="1" t="s">
+      <c r="N55" s="1" t="s">
         <v>507</v>
-      </c>
-      <c r="N55" s="1" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
@@ -6210,43 +6210,43 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
+        <v>508</v>
+      </c>
+      <c r="C56" t="s">
         <v>509</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>510</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
+        <v>60</v>
+      </c>
+      <c r="F56" t="s">
+        <v>371</v>
+      </c>
+      <c r="G56" t="s">
+        <v>130</v>
+      </c>
+      <c r="H56" t="s">
+        <v>192</v>
+      </c>
+      <c r="I56" t="s">
         <v>511</v>
       </c>
-      <c r="E56" t="s">
-        <v>61</v>
-      </c>
-      <c r="F56" t="s">
-        <v>372</v>
-      </c>
-      <c r="G56" t="s">
-        <v>131</v>
-      </c>
-      <c r="H56" t="s">
-        <v>193</v>
-      </c>
-      <c r="I56" t="s">
+      <c r="J56" t="s">
         <v>512</v>
       </c>
-      <c r="J56" t="s">
+      <c r="K56" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="K56" s="1" t="s">
+      <c r="L56" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="L56" s="1" t="s">
+      <c r="M56" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="M56" s="1" t="s">
+      <c r="N56" s="1" t="s">
         <v>516</v>
-      </c>
-      <c r="N56" s="1" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
@@ -6254,43 +6254,43 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
+        <v>517</v>
+      </c>
+      <c r="C57" t="s">
         <v>518</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
+        <v>102</v>
+      </c>
+      <c r="E57" t="s">
+        <v>60</v>
+      </c>
+      <c r="F57" t="s">
         <v>519</v>
       </c>
-      <c r="D57" t="s">
-        <v>103</v>
-      </c>
-      <c r="E57" t="s">
-        <v>61</v>
-      </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
+        <v>33</v>
+      </c>
+      <c r="H57" t="s">
+        <v>81</v>
+      </c>
+      <c r="I57" t="s">
         <v>520</v>
       </c>
-      <c r="G57" t="s">
-        <v>34</v>
-      </c>
-      <c r="H57" t="s">
-        <v>82</v>
-      </c>
-      <c r="I57" t="s">
+      <c r="J57" t="s">
         <v>521</v>
       </c>
-      <c r="J57" t="s">
+      <c r="K57" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L57" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="K57" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L57" s="1" t="s">
+      <c r="M57" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="N57" s="1" t="s">
         <v>523</v>
-      </c>
-      <c r="M57" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="N57" s="1" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
@@ -6298,43 +6298,43 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
+        <v>524</v>
+      </c>
+      <c r="C58" t="s">
         <v>525</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>526</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
+        <v>60</v>
+      </c>
+      <c r="F58" t="s">
+        <v>171</v>
+      </c>
+      <c r="G58" t="s">
+        <v>130</v>
+      </c>
+      <c r="H58" t="s">
+        <v>132</v>
+      </c>
+      <c r="I58" t="s">
         <v>527</v>
       </c>
-      <c r="E58" t="s">
-        <v>61</v>
-      </c>
-      <c r="F58" t="s">
-        <v>172</v>
-      </c>
-      <c r="G58" t="s">
-        <v>131</v>
-      </c>
-      <c r="H58" t="s">
-        <v>133</v>
-      </c>
-      <c r="I58" t="s">
+      <c r="J58" t="s">
         <v>528</v>
       </c>
-      <c r="J58" t="s">
+      <c r="K58" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L58" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="K58" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L58" s="1" t="s">
+      <c r="M58" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="M58" s="1" t="s">
+      <c r="N58" s="1" t="s">
         <v>531</v>
-      </c>
-      <c r="N58" s="1" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
@@ -6342,43 +6342,43 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
+        <v>532</v>
+      </c>
+      <c r="C59" t="s">
         <v>533</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
+        <v>93</v>
+      </c>
+      <c r="E59" t="s">
+        <v>60</v>
+      </c>
+      <c r="F59" t="s">
+        <v>171</v>
+      </c>
+      <c r="G59" t="s">
+        <v>297</v>
+      </c>
+      <c r="H59" t="s">
+        <v>192</v>
+      </c>
+      <c r="I59" t="s">
         <v>534</v>
       </c>
-      <c r="D59" t="s">
-        <v>94</v>
-      </c>
-      <c r="E59" t="s">
-        <v>61</v>
-      </c>
-      <c r="F59" t="s">
-        <v>172</v>
-      </c>
-      <c r="G59" t="s">
-        <v>298</v>
-      </c>
-      <c r="H59" t="s">
-        <v>193</v>
-      </c>
-      <c r="I59" t="s">
+      <c r="J59" t="s">
         <v>535</v>
       </c>
-      <c r="J59" t="s">
+      <c r="K59" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="K59" s="1" t="s">
+      <c r="L59" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="L59" s="1" t="s">
+      <c r="M59" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="M59" s="1" t="s">
+      <c r="N59" s="1" t="s">
         <v>539</v>
-      </c>
-      <c r="N59" s="1" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
@@ -6386,40 +6386,40 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
+        <v>540</v>
+      </c>
+      <c r="C60" t="s">
+        <v>40</v>
+      </c>
+      <c r="D60" t="s">
+        <v>264</v>
+      </c>
+      <c r="E60" t="s">
+        <v>60</v>
+      </c>
+      <c r="F60" t="s">
+        <v>15</v>
+      </c>
+      <c r="G60" t="s">
+        <v>42</v>
+      </c>
+      <c r="H60" t="s">
+        <v>81</v>
+      </c>
+      <c r="I60" t="s">
         <v>541</v>
       </c>
-      <c r="C60" t="s">
-        <v>41</v>
-      </c>
-      <c r="D60" t="s">
-        <v>265</v>
-      </c>
-      <c r="E60" t="s">
-        <v>61</v>
-      </c>
-      <c r="F60" t="s">
-        <v>16</v>
-      </c>
-      <c r="G60" t="s">
-        <v>43</v>
-      </c>
-      <c r="H60" t="s">
-        <v>82</v>
-      </c>
-      <c r="I60" t="s">
+      <c r="K60" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="L60" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="K60" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="L60" s="1" t="s">
+      <c r="M60" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N60" s="1" t="s">
         <v>543</v>
-      </c>
-      <c r="M60" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N60" s="1" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
@@ -6427,43 +6427,43 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
+        <v>544</v>
+      </c>
+      <c r="C61" t="s">
+        <v>112</v>
+      </c>
+      <c r="D61" t="s">
+        <v>229</v>
+      </c>
+      <c r="E61" t="s">
+        <v>60</v>
+      </c>
+      <c r="F61" t="s">
+        <v>396</v>
+      </c>
+      <c r="G61" t="s">
+        <v>220</v>
+      </c>
+      <c r="H61" t="s">
+        <v>104</v>
+      </c>
+      <c r="I61" t="s">
         <v>545</v>
       </c>
-      <c r="C61" t="s">
-        <v>113</v>
-      </c>
-      <c r="D61" t="s">
-        <v>230</v>
-      </c>
-      <c r="E61" t="s">
-        <v>61</v>
-      </c>
-      <c r="F61" t="s">
-        <v>397</v>
-      </c>
-      <c r="G61" t="s">
-        <v>221</v>
-      </c>
-      <c r="H61" t="s">
-        <v>105</v>
-      </c>
-      <c r="I61" t="s">
+      <c r="J61" t="s">
         <v>546</v>
       </c>
-      <c r="J61" t="s">
+      <c r="K61" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="K61" s="1" t="s">
+      <c r="L61" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="L61" s="1" t="s">
+      <c r="M61" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="M61" s="1" t="s">
+      <c r="N61" s="1" t="s">
         <v>550</v>
-      </c>
-      <c r="N61" s="1" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
@@ -6471,43 +6471,43 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
+        <v>551</v>
+      </c>
+      <c r="C62" t="s">
         <v>552</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
+        <v>148</v>
+      </c>
+      <c r="E62" t="s">
+        <v>60</v>
+      </c>
+      <c r="F62" t="s">
         <v>553</v>
       </c>
-      <c r="D62" t="s">
-        <v>149</v>
-      </c>
-      <c r="E62" t="s">
-        <v>61</v>
-      </c>
-      <c r="F62" t="s">
+      <c r="G62" t="s">
+        <v>111</v>
+      </c>
+      <c r="H62" t="s">
+        <v>192</v>
+      </c>
+      <c r="I62" t="s">
         <v>554</v>
       </c>
-      <c r="G62" t="s">
-        <v>112</v>
-      </c>
-      <c r="H62" t="s">
-        <v>193</v>
-      </c>
-      <c r="I62" t="s">
+      <c r="J62" t="s">
         <v>555</v>
       </c>
-      <c r="J62" t="s">
+      <c r="K62" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="K62" s="1" t="s">
+      <c r="L62" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="L62" s="1" t="s">
+      <c r="M62" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="M62" s="1" t="s">
+      <c r="N62" s="1" t="s">
         <v>559</v>
-      </c>
-      <c r="N62" s="1" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
@@ -6515,43 +6515,43 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
+        <v>560</v>
+      </c>
+      <c r="C63" t="s">
         <v>561</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
+        <v>163</v>
+      </c>
+      <c r="E63" t="s">
+        <v>60</v>
+      </c>
+      <c r="F63" t="s">
+        <v>54</v>
+      </c>
+      <c r="G63" t="s">
+        <v>56</v>
+      </c>
+      <c r="H63" t="s">
+        <v>81</v>
+      </c>
+      <c r="I63" t="s">
         <v>562</v>
       </c>
-      <c r="D63" t="s">
-        <v>164</v>
-      </c>
-      <c r="E63" t="s">
-        <v>61</v>
-      </c>
-      <c r="F63" t="s">
-        <v>55</v>
-      </c>
-      <c r="G63" t="s">
-        <v>57</v>
-      </c>
-      <c r="H63" t="s">
-        <v>82</v>
-      </c>
-      <c r="I63" t="s">
+      <c r="J63" t="s">
         <v>563</v>
       </c>
-      <c r="J63" t="s">
+      <c r="K63" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="K63" s="1" t="s">
+      <c r="L63" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="M63" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="L63" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="M63" s="1" t="s">
+      <c r="N63" s="1" t="s">
         <v>566</v>
-      </c>
-      <c r="N63" s="1" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
@@ -6559,40 +6559,40 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
+        <v>567</v>
+      </c>
+      <c r="C64" t="s">
         <v>568</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
+        <v>148</v>
+      </c>
+      <c r="E64" t="s">
+        <v>60</v>
+      </c>
+      <c r="F64" t="s">
+        <v>461</v>
+      </c>
+      <c r="G64" t="s">
+        <v>297</v>
+      </c>
+      <c r="H64" t="s">
+        <v>132</v>
+      </c>
+      <c r="I64" t="s">
         <v>569</v>
       </c>
-      <c r="D64" t="s">
-        <v>149</v>
-      </c>
-      <c r="E64" t="s">
-        <v>61</v>
-      </c>
-      <c r="F64" t="s">
-        <v>462</v>
-      </c>
-      <c r="G64" t="s">
-        <v>298</v>
-      </c>
-      <c r="H64" t="s">
-        <v>133</v>
-      </c>
-      <c r="I64" t="s">
+      <c r="K64" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="K64" s="1" t="s">
+      <c r="L64" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="M64" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="L64" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="M64" s="1" t="s">
+      <c r="N64" s="1" t="s">
         <v>572</v>
-      </c>
-      <c r="N64" s="1" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
@@ -6600,43 +6600,43 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
+        <v>573</v>
+      </c>
+      <c r="C65" t="s">
         <v>574</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>575</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
+        <v>60</v>
+      </c>
+      <c r="F65" t="s">
         <v>576</v>
       </c>
-      <c r="E65" t="s">
-        <v>61</v>
-      </c>
-      <c r="F65" t="s">
+      <c r="G65" t="s">
+        <v>120</v>
+      </c>
+      <c r="H65" t="s">
+        <v>192</v>
+      </c>
+      <c r="I65" t="s">
         <v>577</v>
       </c>
-      <c r="G65" t="s">
-        <v>121</v>
-      </c>
-      <c r="H65" t="s">
-        <v>193</v>
-      </c>
-      <c r="I65" t="s">
+      <c r="J65" t="s">
         <v>578</v>
       </c>
-      <c r="J65" t="s">
+      <c r="K65" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="K65" s="1" t="s">
+      <c r="L65" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="L65" s="1" t="s">
+      <c r="M65" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="M65" s="1" t="s">
+      <c r="N65" s="1" t="s">
         <v>582</v>
-      </c>
-      <c r="N65" s="1" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
@@ -6644,43 +6644,43 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
+        <v>583</v>
+      </c>
+      <c r="C66" t="s">
         <v>584</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>585</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
+        <v>60</v>
+      </c>
+      <c r="F66" t="s">
+        <v>396</v>
+      </c>
+      <c r="G66" t="s">
+        <v>438</v>
+      </c>
+      <c r="H66" t="s">
+        <v>104</v>
+      </c>
+      <c r="I66" t="s">
         <v>586</v>
       </c>
-      <c r="E66" t="s">
-        <v>61</v>
-      </c>
-      <c r="F66" t="s">
-        <v>397</v>
-      </c>
-      <c r="G66" t="s">
-        <v>439</v>
-      </c>
-      <c r="H66" t="s">
-        <v>105</v>
-      </c>
-      <c r="I66" t="s">
+      <c r="J66" t="s">
         <v>587</v>
       </c>
-      <c r="J66" t="s">
+      <c r="K66" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="K66" s="1" t="s">
+      <c r="L66" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M66" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="L66" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M66" s="1" t="s">
+      <c r="N66" s="1" t="s">
         <v>590</v>
-      </c>
-      <c r="N66" s="1" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
@@ -6688,43 +6688,43 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
+        <v>591</v>
+      </c>
+      <c r="C67" t="s">
+        <v>387</v>
+      </c>
+      <c r="D67" t="s">
         <v>592</v>
       </c>
-      <c r="C67" t="s">
-        <v>388</v>
-      </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
+        <v>60</v>
+      </c>
+      <c r="F67" t="s">
+        <v>519</v>
+      </c>
+      <c r="G67" t="s">
+        <v>111</v>
+      </c>
+      <c r="H67" t="s">
+        <v>132</v>
+      </c>
+      <c r="I67" t="s">
         <v>593</v>
       </c>
-      <c r="E67" t="s">
-        <v>61</v>
-      </c>
-      <c r="F67" t="s">
-        <v>520</v>
-      </c>
-      <c r="G67" t="s">
-        <v>112</v>
-      </c>
-      <c r="H67" t="s">
-        <v>133</v>
-      </c>
-      <c r="I67" t="s">
+      <c r="J67" t="s">
         <v>594</v>
       </c>
-      <c r="J67" t="s">
+      <c r="K67" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L67" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="K67" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L67" s="1" t="s">
+      <c r="M67" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="M67" s="1" t="s">
+      <c r="N67" s="1" t="s">
         <v>597</v>
-      </c>
-      <c r="N67" s="1" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
@@ -6732,43 +6732,43 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
+        <v>598</v>
+      </c>
+      <c r="C68" t="s">
         <v>599</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>600</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
+        <v>60</v>
+      </c>
+      <c r="F68" t="s">
+        <v>519</v>
+      </c>
+      <c r="G68" t="s">
+        <v>130</v>
+      </c>
+      <c r="H68" t="s">
+        <v>81</v>
+      </c>
+      <c r="I68" t="s">
         <v>601</v>
       </c>
-      <c r="E68" t="s">
-        <v>61</v>
-      </c>
-      <c r="F68" t="s">
-        <v>520</v>
-      </c>
-      <c r="G68" t="s">
-        <v>131</v>
-      </c>
-      <c r="H68" t="s">
-        <v>82</v>
-      </c>
-      <c r="I68" t="s">
+      <c r="J68" t="s">
         <v>602</v>
       </c>
-      <c r="J68" t="s">
+      <c r="K68" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="L68" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="K68" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="L68" s="1" t="s">
+      <c r="M68" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="M68" s="1" t="s">
+      <c r="N68" s="1" t="s">
         <v>605</v>
-      </c>
-      <c r="N68" s="1" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
@@ -6776,43 +6776,43 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
+        <v>606</v>
+      </c>
+      <c r="C69" t="s">
         <v>607</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>608</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
+        <v>60</v>
+      </c>
+      <c r="F69" t="s">
+        <v>496</v>
+      </c>
+      <c r="G69" t="s">
+        <v>297</v>
+      </c>
+      <c r="H69" t="s">
+        <v>81</v>
+      </c>
+      <c r="I69" t="s">
         <v>609</v>
       </c>
-      <c r="E69" t="s">
-        <v>61</v>
-      </c>
-      <c r="F69" t="s">
-        <v>497</v>
-      </c>
-      <c r="G69" t="s">
-        <v>298</v>
-      </c>
-      <c r="H69" t="s">
-        <v>82</v>
-      </c>
-      <c r="I69" t="s">
+      <c r="J69" t="s">
         <v>610</v>
       </c>
-      <c r="J69" t="s">
+      <c r="K69" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="L69" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="K69" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="L69" s="1" t="s">
+      <c r="M69" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="N69" s="1" t="s">
         <v>612</v>
-      </c>
-      <c r="M69" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="N69" s="1" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
@@ -6820,43 +6820,43 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
+        <v>613</v>
+      </c>
+      <c r="C70" t="s">
         <v>614</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>615</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
+        <v>60</v>
+      </c>
+      <c r="F70" t="s">
+        <v>31</v>
+      </c>
+      <c r="G70" t="s">
+        <v>120</v>
+      </c>
+      <c r="H70" t="s">
+        <v>132</v>
+      </c>
+      <c r="I70" t="s">
         <v>616</v>
       </c>
-      <c r="E70" t="s">
-        <v>61</v>
-      </c>
-      <c r="F70" t="s">
-        <v>32</v>
-      </c>
-      <c r="G70" t="s">
-        <v>121</v>
-      </c>
-      <c r="H70" t="s">
-        <v>133</v>
-      </c>
-      <c r="I70" t="s">
+      <c r="J70" t="s">
         <v>617</v>
       </c>
-      <c r="J70" t="s">
+      <c r="K70" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="K70" s="1" t="s">
+      <c r="L70" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="L70" s="1" t="s">
+      <c r="M70" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="M70" s="1" t="s">
+      <c r="N70" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="N70" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
@@ -6864,43 +6864,43 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
+        <v>622</v>
+      </c>
+      <c r="C71" t="s">
         <v>623</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>624</v>
       </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
+        <v>60</v>
+      </c>
+      <c r="F71" t="s">
+        <v>265</v>
+      </c>
+      <c r="G71" t="s">
+        <v>138</v>
+      </c>
+      <c r="H71" t="s">
+        <v>104</v>
+      </c>
+      <c r="I71" t="s">
         <v>625</v>
       </c>
-      <c r="E71" t="s">
-        <v>61</v>
-      </c>
-      <c r="F71" t="s">
-        <v>266</v>
-      </c>
-      <c r="G71" t="s">
-        <v>139</v>
-      </c>
-      <c r="H71" t="s">
-        <v>105</v>
-      </c>
-      <c r="I71" t="s">
+      <c r="J71" t="s">
         <v>626</v>
       </c>
-      <c r="J71" t="s">
+      <c r="K71" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="L71" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="K71" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="L71" s="1" t="s">
+      <c r="M71" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N71" s="1" t="s">
         <v>628</v>
-      </c>
-      <c r="M71" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N71" s="1" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
@@ -6908,43 +6908,43 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
+        <v>629</v>
+      </c>
+      <c r="C72" t="s">
         <v>630</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
+        <v>361</v>
+      </c>
+      <c r="E72" t="s">
+        <v>60</v>
+      </c>
+      <c r="F72" t="s">
         <v>631</v>
       </c>
-      <c r="D72" t="s">
-        <v>362</v>
-      </c>
-      <c r="E72" t="s">
-        <v>61</v>
-      </c>
-      <c r="F72" t="s">
+      <c r="G72" t="s">
+        <v>153</v>
+      </c>
+      <c r="H72" t="s">
+        <v>132</v>
+      </c>
+      <c r="I72" t="s">
         <v>632</v>
       </c>
-      <c r="G72" t="s">
-        <v>154</v>
-      </c>
-      <c r="H72" t="s">
-        <v>133</v>
-      </c>
-      <c r="I72" t="s">
+      <c r="J72" t="s">
         <v>633</v>
       </c>
-      <c r="J72" t="s">
+      <c r="K72" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="K72" s="1" t="s">
+      <c r="L72" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="L72" s="1" t="s">
+      <c r="M72" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="M72" s="1" t="s">
+      <c r="N72" s="1" t="s">
         <v>637</v>
-      </c>
-      <c r="N72" s="1" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
@@ -6952,43 +6952,43 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
+        <v>638</v>
+      </c>
+      <c r="C73" t="s">
         <v>639</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>640</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
+        <v>60</v>
+      </c>
+      <c r="F73" t="s">
+        <v>461</v>
+      </c>
+      <c r="G73" t="s">
+        <v>111</v>
+      </c>
+      <c r="H73" t="s">
+        <v>81</v>
+      </c>
+      <c r="I73" t="s">
         <v>641</v>
       </c>
-      <c r="E73" t="s">
-        <v>61</v>
-      </c>
-      <c r="F73" t="s">
-        <v>462</v>
-      </c>
-      <c r="G73" t="s">
-        <v>112</v>
-      </c>
-      <c r="H73" t="s">
-        <v>82</v>
-      </c>
-      <c r="I73" t="s">
+      <c r="J73" t="s">
         <v>642</v>
       </c>
-      <c r="J73" t="s">
+      <c r="K73" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M73" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="K73" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L73" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M73" s="1" t="s">
+      <c r="N73" s="1" t="s">
         <v>644</v>
-      </c>
-      <c r="N73" s="1" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
@@ -6996,43 +6996,43 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
+        <v>645</v>
+      </c>
+      <c r="C74" t="s">
         <v>646</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>647</v>
       </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
+        <v>60</v>
+      </c>
+      <c r="F74" t="s">
+        <v>103</v>
+      </c>
+      <c r="G74" t="s">
+        <v>294</v>
+      </c>
+      <c r="H74" t="s">
+        <v>104</v>
+      </c>
+      <c r="I74" t="s">
         <v>648</v>
       </c>
-      <c r="E74" t="s">
-        <v>61</v>
-      </c>
-      <c r="F74" t="s">
-        <v>104</v>
-      </c>
-      <c r="G74" t="s">
-        <v>295</v>
-      </c>
-      <c r="H74" t="s">
-        <v>105</v>
-      </c>
-      <c r="I74" t="s">
+      <c r="J74" t="s">
         <v>649</v>
       </c>
-      <c r="J74" t="s">
+      <c r="K74" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="K74" s="1" t="s">
+      <c r="L74" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="L74" s="1" t="s">
+      <c r="M74" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="M74" s="1" t="s">
+      <c r="N74" s="1" t="s">
         <v>653</v>
-      </c>
-      <c r="N74" s="1" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
@@ -7040,43 +7040,43 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
+        <v>654</v>
+      </c>
+      <c r="C75" t="s">
         <v>655</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>656</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
+        <v>60</v>
+      </c>
+      <c r="F75" t="s">
+        <v>207</v>
+      </c>
+      <c r="G75" t="s">
+        <v>33</v>
+      </c>
+      <c r="H75" t="s">
+        <v>62</v>
+      </c>
+      <c r="I75" t="s">
         <v>657</v>
       </c>
-      <c r="E75" t="s">
-        <v>61</v>
-      </c>
-      <c r="F75" t="s">
-        <v>208</v>
-      </c>
-      <c r="G75" t="s">
-        <v>34</v>
-      </c>
-      <c r="H75" t="s">
-        <v>63</v>
-      </c>
-      <c r="I75" t="s">
+      <c r="J75" t="s">
         <v>658</v>
       </c>
-      <c r="J75" t="s">
+      <c r="K75" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="K75" s="1" t="s">
+      <c r="L75" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="L75" s="1" t="s">
+      <c r="M75" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="M75" s="1" t="s">
-        <v>662</v>
-      </c>
       <c r="N75" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
@@ -7084,40 +7084,40 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
+        <v>662</v>
+      </c>
+      <c r="C76" t="s">
         <v>663</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>664</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
+        <v>60</v>
+      </c>
+      <c r="F76" t="s">
+        <v>37</v>
+      </c>
+      <c r="G76" t="s">
+        <v>311</v>
+      </c>
+      <c r="H76" t="s">
+        <v>104</v>
+      </c>
+      <c r="I76" t="s">
         <v>665</v>
       </c>
-      <c r="E76" t="s">
-        <v>61</v>
-      </c>
-      <c r="F76" t="s">
-        <v>38</v>
-      </c>
-      <c r="G76" t="s">
-        <v>312</v>
-      </c>
-      <c r="H76" t="s">
-        <v>105</v>
-      </c>
-      <c r="I76" t="s">
+      <c r="K76" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="K76" s="1" t="s">
+      <c r="L76" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="L76" s="1" t="s">
+      <c r="M76" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="M76" s="1" t="s">
+      <c r="N76" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="N76" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
@@ -7125,43 +7125,43 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
+        <v>670</v>
+      </c>
+      <c r="C77" t="s">
         <v>671</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
         <v>672</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
+        <v>60</v>
+      </c>
+      <c r="F77" t="s">
+        <v>265</v>
+      </c>
+      <c r="G77" t="s">
+        <v>153</v>
+      </c>
+      <c r="H77" t="s">
+        <v>192</v>
+      </c>
+      <c r="I77" t="s">
         <v>673</v>
       </c>
-      <c r="E77" t="s">
-        <v>61</v>
-      </c>
-      <c r="F77" t="s">
-        <v>266</v>
-      </c>
-      <c r="G77" t="s">
-        <v>154</v>
-      </c>
-      <c r="H77" t="s">
-        <v>193</v>
-      </c>
-      <c r="I77" t="s">
+      <c r="J77" t="s">
         <v>674</v>
       </c>
-      <c r="J77" t="s">
+      <c r="K77" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="K77" s="1" t="s">
+      <c r="L77" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="L77" s="1" t="s">
+      <c r="M77" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="N77" s="1" t="s">
         <v>677</v>
-      </c>
-      <c r="M77" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="N77" s="1" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
@@ -7169,43 +7169,43 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
+        <v>678</v>
+      </c>
+      <c r="C78" t="s">
         <v>679</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
+        <v>180</v>
+      </c>
+      <c r="E78" t="s">
+        <v>60</v>
+      </c>
+      <c r="F78" t="s">
+        <v>461</v>
+      </c>
+      <c r="G78" t="s">
+        <v>120</v>
+      </c>
+      <c r="H78" t="s">
+        <v>255</v>
+      </c>
+      <c r="I78" t="s">
         <v>680</v>
       </c>
-      <c r="D78" t="s">
-        <v>181</v>
-      </c>
-      <c r="E78" t="s">
-        <v>61</v>
-      </c>
-      <c r="F78" t="s">
-        <v>462</v>
-      </c>
-      <c r="G78" t="s">
-        <v>121</v>
-      </c>
-      <c r="H78" t="s">
-        <v>256</v>
-      </c>
-      <c r="I78" t="s">
+      <c r="J78" t="s">
         <v>681</v>
       </c>
-      <c r="J78" t="s">
+      <c r="K78" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L78" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="K78" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L78" s="1" t="s">
+      <c r="M78" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="M78" s="1" t="s">
-        <v>684</v>
-      </c>
       <c r="N78" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
@@ -7213,43 +7213,43 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
+        <v>684</v>
+      </c>
+      <c r="C79" t="s">
         <v>685</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
+        <v>585</v>
+      </c>
+      <c r="E79" t="s">
+        <v>60</v>
+      </c>
+      <c r="F79" t="s">
         <v>686</v>
       </c>
-      <c r="D79" t="s">
-        <v>586</v>
-      </c>
-      <c r="E79" t="s">
-        <v>61</v>
-      </c>
-      <c r="F79" t="s">
+      <c r="G79" t="s">
+        <v>146</v>
+      </c>
+      <c r="H79" t="s">
+        <v>132</v>
+      </c>
+      <c r="I79" t="s">
         <v>687</v>
       </c>
-      <c r="G79" t="s">
-        <v>147</v>
-      </c>
-      <c r="H79" t="s">
-        <v>133</v>
-      </c>
-      <c r="I79" t="s">
+      <c r="J79" t="s">
         <v>688</v>
       </c>
-      <c r="J79" t="s">
+      <c r="K79" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="K79" s="1" t="s">
+      <c r="L79" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="L79" s="1" t="s">
+      <c r="M79" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="M79" s="1" t="s">
+      <c r="N79" s="1" t="s">
         <v>692</v>
-      </c>
-      <c r="N79" s="1" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
@@ -7257,40 +7257,40 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
+        <v>693</v>
+      </c>
+      <c r="C80" t="s">
         <v>694</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
+        <v>229</v>
+      </c>
+      <c r="E80" t="s">
+        <v>60</v>
+      </c>
+      <c r="F80" t="s">
         <v>695</v>
       </c>
-      <c r="D80" t="s">
-        <v>230</v>
-      </c>
-      <c r="E80" t="s">
-        <v>61</v>
-      </c>
-      <c r="F80" t="s">
+      <c r="G80" t="s">
+        <v>42</v>
+      </c>
+      <c r="H80" t="s">
+        <v>62</v>
+      </c>
+      <c r="I80" t="s">
         <v>696</v>
       </c>
-      <c r="G80" t="s">
-        <v>43</v>
-      </c>
-      <c r="H80" t="s">
-        <v>63</v>
-      </c>
-      <c r="I80" t="s">
+      <c r="K80" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="K80" s="1" t="s">
+      <c r="L80" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="L80" s="1" t="s">
+      <c r="M80" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="M80" s="1" t="s">
+      <c r="N80" s="1" t="s">
         <v>700</v>
-      </c>
-      <c r="N80" s="1" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
@@ -7298,40 +7298,40 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
+        <v>701</v>
+      </c>
+      <c r="C81" t="s">
         <v>702</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>703</v>
       </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
+        <v>60</v>
+      </c>
+      <c r="F81" t="s">
         <v>704</v>
       </c>
-      <c r="E81" t="s">
-        <v>61</v>
-      </c>
-      <c r="F81" t="s">
+      <c r="G81" t="s">
+        <v>56</v>
+      </c>
+      <c r="H81" t="s">
+        <v>62</v>
+      </c>
+      <c r="I81" t="s">
         <v>705</v>
       </c>
-      <c r="G81" t="s">
-        <v>57</v>
-      </c>
-      <c r="H81" t="s">
-        <v>63</v>
-      </c>
-      <c r="I81" t="s">
+      <c r="K81" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="K81" s="1" t="s">
+      <c r="L81" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="L81" s="1" t="s">
+      <c r="M81" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="M81" s="1" t="s">
-        <v>709</v>
-      </c>
       <c r="N81" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
@@ -7339,43 +7339,43 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
+        <v>709</v>
+      </c>
+      <c r="C82" t="s">
         <v>710</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
+        <v>703</v>
+      </c>
+      <c r="E82" t="s">
+        <v>60</v>
+      </c>
+      <c r="F82" t="s">
         <v>711</v>
       </c>
-      <c r="D82" t="s">
-        <v>704</v>
-      </c>
-      <c r="E82" t="s">
-        <v>61</v>
-      </c>
-      <c r="F82" t="s">
+      <c r="G82" t="s">
+        <v>42</v>
+      </c>
+      <c r="H82" t="s">
+        <v>156</v>
+      </c>
+      <c r="I82" t="s">
         <v>712</v>
       </c>
-      <c r="G82" t="s">
-        <v>43</v>
-      </c>
-      <c r="H82" t="s">
-        <v>157</v>
-      </c>
-      <c r="I82" t="s">
+      <c r="J82" t="s">
         <v>713</v>
       </c>
-      <c r="J82" t="s">
+      <c r="K82" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="L82" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="K82" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="L82" s="1" t="s">
+      <c r="M82" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="M82" s="1" t="s">
+      <c r="N82" s="1" t="s">
         <v>716</v>
-      </c>
-      <c r="N82" s="1" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
@@ -7383,43 +7383,43 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
+        <v>717</v>
+      </c>
+      <c r="C83" t="s">
         <v>718</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
+        <v>469</v>
+      </c>
+      <c r="E83" t="s">
+        <v>60</v>
+      </c>
+      <c r="F83" t="s">
         <v>719</v>
       </c>
-      <c r="D83" t="s">
-        <v>470</v>
-      </c>
-      <c r="E83" t="s">
-        <v>61</v>
-      </c>
-      <c r="F83" t="s">
+      <c r="G83" t="s">
+        <v>401</v>
+      </c>
+      <c r="H83" t="s">
+        <v>104</v>
+      </c>
+      <c r="I83" t="s">
         <v>720</v>
       </c>
-      <c r="G83" t="s">
-        <v>402</v>
-      </c>
-      <c r="H83" t="s">
-        <v>105</v>
-      </c>
-      <c r="I83" t="s">
+      <c r="J83" t="s">
         <v>721</v>
       </c>
-      <c r="J83" t="s">
+      <c r="K83" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="M83" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="K83" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L83" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="M83" s="1" t="s">
+      <c r="N83" s="1" t="s">
         <v>723</v>
-      </c>
-      <c r="N83" s="1" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
@@ -7427,43 +7427,43 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
+        <v>724</v>
+      </c>
+      <c r="C84" t="s">
         <v>725</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
         <v>726</v>
       </c>
-      <c r="D84" t="s">
+      <c r="E84" t="s">
+        <v>60</v>
+      </c>
+      <c r="F84" t="s">
+        <v>207</v>
+      </c>
+      <c r="G84" t="s">
+        <v>573</v>
+      </c>
+      <c r="H84" t="s">
+        <v>104</v>
+      </c>
+      <c r="I84" t="s">
         <v>727</v>
       </c>
-      <c r="E84" t="s">
-        <v>61</v>
-      </c>
-      <c r="F84" t="s">
-        <v>208</v>
-      </c>
-      <c r="G84" t="s">
-        <v>574</v>
-      </c>
-      <c r="H84" t="s">
-        <v>105</v>
-      </c>
-      <c r="I84" t="s">
+      <c r="J84" t="s">
         <v>728</v>
       </c>
-      <c r="J84" t="s">
+      <c r="K84" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="K84" s="1" t="s">
+      <c r="L84" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="L84" s="1" t="s">
+      <c r="M84" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="M84" s="1" t="s">
+      <c r="N84" s="1" t="s">
         <v>732</v>
-      </c>
-      <c r="N84" s="1" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
@@ -7471,43 +7471,43 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
+        <v>733</v>
+      </c>
+      <c r="C85" t="s">
         <v>734</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
         <v>735</v>
       </c>
-      <c r="D85" t="s">
+      <c r="E85" t="s">
+        <v>60</v>
+      </c>
+      <c r="F85" t="s">
         <v>736</v>
       </c>
-      <c r="E85" t="s">
-        <v>61</v>
-      </c>
-      <c r="F85" t="s">
+      <c r="G85" t="s">
+        <v>16</v>
+      </c>
+      <c r="H85" t="s">
+        <v>440</v>
+      </c>
+      <c r="I85" t="s">
         <v>737</v>
       </c>
-      <c r="G85" t="s">
-        <v>17</v>
-      </c>
-      <c r="H85" t="s">
-        <v>441</v>
-      </c>
-      <c r="I85" t="s">
+      <c r="J85" t="s">
         <v>738</v>
       </c>
-      <c r="J85" t="s">
+      <c r="K85" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="M85" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="K85" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="L85" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="M85" s="1" t="s">
+      <c r="N85" s="1" t="s">
         <v>740</v>
-      </c>
-      <c r="N85" s="1" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
@@ -7515,43 +7515,43 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C86" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D86" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E86" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F86" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G86" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H86" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I86" t="s">
+        <v>741</v>
+      </c>
+      <c r="J86" t="s">
         <v>742</v>
       </c>
-      <c r="J86" t="s">
+      <c r="K86" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="L86" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="K86" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="L86" s="1" t="s">
+      <c r="M86" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="M86" s="1" t="s">
+      <c r="N86" s="1" t="s">
         <v>745</v>
-      </c>
-      <c r="N86" s="1" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
@@ -7559,43 +7559,43 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
+        <v>746</v>
+      </c>
+      <c r="C87" t="s">
         <v>747</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
         <v>748</v>
       </c>
-      <c r="D87" t="s">
+      <c r="E87" t="s">
+        <v>60</v>
+      </c>
+      <c r="F87" t="s">
         <v>749</v>
       </c>
-      <c r="E87" t="s">
-        <v>61</v>
-      </c>
-      <c r="F87" t="s">
+      <c r="G87" t="s">
+        <v>198</v>
+      </c>
+      <c r="H87" t="s">
+        <v>132</v>
+      </c>
+      <c r="I87" t="s">
         <v>750</v>
       </c>
-      <c r="G87" t="s">
-        <v>199</v>
-      </c>
-      <c r="H87" t="s">
-        <v>133</v>
-      </c>
-      <c r="I87" t="s">
+      <c r="J87" t="s">
         <v>751</v>
       </c>
-      <c r="J87" t="s">
+      <c r="K87" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="L87" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="K87" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="L87" s="1" t="s">
+      <c r="M87" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="M87" s="1" t="s">
+      <c r="N87" s="1" t="s">
         <v>754</v>
-      </c>
-      <c r="N87" s="1" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
@@ -7603,43 +7603,43 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
+        <v>755</v>
+      </c>
+      <c r="C88" t="s">
+        <v>600</v>
+      </c>
+      <c r="D88" t="s">
         <v>756</v>
       </c>
-      <c r="C88" t="s">
-        <v>601</v>
-      </c>
-      <c r="D88" t="s">
+      <c r="E88" t="s">
+        <v>60</v>
+      </c>
+      <c r="F88" t="s">
+        <v>23</v>
+      </c>
+      <c r="G88" t="s">
+        <v>146</v>
+      </c>
+      <c r="H88" t="s">
+        <v>192</v>
+      </c>
+      <c r="I88" t="s">
         <v>757</v>
       </c>
-      <c r="E88" t="s">
-        <v>61</v>
-      </c>
-      <c r="F88" t="s">
-        <v>24</v>
-      </c>
-      <c r="G88" t="s">
-        <v>147</v>
-      </c>
-      <c r="H88" t="s">
-        <v>193</v>
-      </c>
-      <c r="I88" t="s">
+      <c r="J88" t="s">
         <v>758</v>
       </c>
-      <c r="J88" t="s">
+      <c r="K88" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="K88" s="1" t="s">
+      <c r="L88" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M88" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="L88" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M88" s="1" t="s">
+      <c r="N88" s="1" t="s">
         <v>761</v>
-      </c>
-      <c r="N88" s="1" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
@@ -7647,43 +7647,43 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
+        <v>762</v>
+      </c>
+      <c r="C89" t="s">
         <v>763</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
         <v>764</v>
       </c>
-      <c r="D89" t="s">
+      <c r="E89" t="s">
+        <v>60</v>
+      </c>
+      <c r="F89" t="s">
         <v>765</v>
       </c>
-      <c r="E89" t="s">
-        <v>61</v>
-      </c>
-      <c r="F89" t="s">
+      <c r="G89" t="s">
+        <v>198</v>
+      </c>
+      <c r="H89" t="s">
+        <v>192</v>
+      </c>
+      <c r="I89" t="s">
         <v>766</v>
       </c>
-      <c r="G89" t="s">
-        <v>199</v>
-      </c>
-      <c r="H89" t="s">
-        <v>193</v>
-      </c>
-      <c r="I89" t="s">
+      <c r="J89" t="s">
         <v>767</v>
       </c>
-      <c r="J89" t="s">
+      <c r="K89" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="K89" s="1" t="s">
+      <c r="L89" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="L89" s="1" t="s">
+      <c r="M89" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="M89" s="1" t="s">
+      <c r="N89" s="1" t="s">
         <v>771</v>
-      </c>
-      <c r="N89" s="1" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
@@ -7691,43 +7691,43 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
+        <v>772</v>
+      </c>
+      <c r="C90" t="s">
         <v>773</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
+        <v>229</v>
+      </c>
+      <c r="E90" t="s">
+        <v>60</v>
+      </c>
+      <c r="F90" t="s">
+        <v>48</v>
+      </c>
+      <c r="G90" t="s">
+        <v>16</v>
+      </c>
+      <c r="H90" t="s">
+        <v>181</v>
+      </c>
+      <c r="I90" t="s">
         <v>774</v>
       </c>
-      <c r="D90" t="s">
-        <v>230</v>
-      </c>
-      <c r="E90" t="s">
-        <v>61</v>
-      </c>
-      <c r="F90" t="s">
-        <v>49</v>
-      </c>
-      <c r="G90" t="s">
-        <v>17</v>
-      </c>
-      <c r="H90" t="s">
-        <v>182</v>
-      </c>
-      <c r="I90" t="s">
+      <c r="J90" t="s">
         <v>775</v>
       </c>
-      <c r="J90" t="s">
+      <c r="K90" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L90" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="K90" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="L90" s="1" t="s">
+      <c r="M90" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="N90" s="1" t="s">
         <v>777</v>
-      </c>
-      <c r="M90" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="N90" s="1" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
@@ -7735,43 +7735,43 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
+        <v>778</v>
+      </c>
+      <c r="C91" t="s">
         <v>779</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
         <v>780</v>
       </c>
-      <c r="D91" t="s">
+      <c r="E91" t="s">
+        <v>60</v>
+      </c>
+      <c r="F91" t="s">
         <v>781</v>
       </c>
-      <c r="E91" t="s">
-        <v>61</v>
-      </c>
-      <c r="F91" t="s">
+      <c r="G91" t="s">
+        <v>281</v>
+      </c>
+      <c r="H91" t="s">
+        <v>132</v>
+      </c>
+      <c r="I91" t="s">
         <v>782</v>
       </c>
-      <c r="G91" t="s">
-        <v>282</v>
-      </c>
-      <c r="H91" t="s">
-        <v>133</v>
-      </c>
-      <c r="I91" t="s">
+      <c r="J91" t="s">
         <v>783</v>
       </c>
-      <c r="J91" t="s">
+      <c r="K91" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="M91" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="N91" s="1" t="s">
         <v>784</v>
-      </c>
-      <c r="K91" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L91" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="M91" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="N91" s="1" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
@@ -7779,43 +7779,43 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
+        <v>785</v>
+      </c>
+      <c r="C92" t="s">
         <v>786</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
         <v>787</v>
       </c>
-      <c r="D92" t="s">
+      <c r="E92" t="s">
+        <v>60</v>
+      </c>
+      <c r="F92" t="s">
+        <v>396</v>
+      </c>
+      <c r="G92" t="s">
+        <v>13</v>
+      </c>
+      <c r="H92" t="s">
         <v>788</v>
       </c>
-      <c r="E92" t="s">
-        <v>61</v>
-      </c>
-      <c r="F92" t="s">
-        <v>397</v>
-      </c>
-      <c r="G92" t="s">
-        <v>14</v>
-      </c>
-      <c r="H92" t="s">
+      <c r="I92" t="s">
         <v>789</v>
       </c>
-      <c r="I92" t="s">
+      <c r="J92" t="s">
         <v>790</v>
       </c>
-      <c r="J92" t="s">
+      <c r="K92" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="L92" s="1" t="s">
         <v>791</v>
       </c>
-      <c r="K92" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="L92" s="1" t="s">
+      <c r="M92" s="1" t="s">
         <v>792</v>
       </c>
-      <c r="M92" s="1" t="s">
+      <c r="N92" s="1" t="s">
         <v>793</v>
-      </c>
-      <c r="N92" s="1" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
@@ -7823,43 +7823,43 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
+        <v>794</v>
+      </c>
+      <c r="C93" t="s">
         <v>795</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
         <v>796</v>
       </c>
-      <c r="D93" t="s">
+      <c r="E93" t="s">
+        <v>60</v>
+      </c>
+      <c r="F93" t="s">
         <v>797</v>
       </c>
-      <c r="E93" t="s">
-        <v>61</v>
-      </c>
-      <c r="F93" t="s">
+      <c r="G93" t="s">
+        <v>262</v>
+      </c>
+      <c r="H93" t="s">
+        <v>104</v>
+      </c>
+      <c r="I93" t="s">
         <v>798</v>
       </c>
-      <c r="G93" t="s">
-        <v>263</v>
-      </c>
-      <c r="H93" t="s">
-        <v>105</v>
-      </c>
-      <c r="I93" t="s">
+      <c r="J93" t="s">
         <v>799</v>
       </c>
-      <c r="J93" t="s">
+      <c r="K93" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="M93" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="K93" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="L93" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="M93" s="1" t="s">
+      <c r="N93" s="1" t="s">
         <v>801</v>
-      </c>
-      <c r="N93" s="1" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
@@ -7867,43 +7867,43 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
+        <v>802</v>
+      </c>
+      <c r="C94" t="s">
         <v>803</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
+        <v>780</v>
+      </c>
+      <c r="E94" t="s">
+        <v>60</v>
+      </c>
+      <c r="F94" t="s">
+        <v>396</v>
+      </c>
+      <c r="G94" t="s">
+        <v>153</v>
+      </c>
+      <c r="H94" t="s">
+        <v>255</v>
+      </c>
+      <c r="I94" t="s">
         <v>804</v>
       </c>
-      <c r="D94" t="s">
-        <v>781</v>
-      </c>
-      <c r="E94" t="s">
-        <v>61</v>
-      </c>
-      <c r="F94" t="s">
-        <v>397</v>
-      </c>
-      <c r="G94" t="s">
-        <v>154</v>
-      </c>
-      <c r="H94" t="s">
-        <v>256</v>
-      </c>
-      <c r="I94" t="s">
+      <c r="J94" t="s">
         <v>805</v>
       </c>
-      <c r="J94" t="s">
+      <c r="K94" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="K94" s="1" t="s">
+      <c r="L94" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="L94" s="1" t="s">
+      <c r="M94" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="M94" s="1" t="s">
+      <c r="N94" s="1" t="s">
         <v>809</v>
-      </c>
-      <c r="N94" s="1" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
@@ -7911,43 +7911,43 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
+        <v>810</v>
+      </c>
+      <c r="C95" t="s">
         <v>811</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
+        <v>423</v>
+      </c>
+      <c r="E95" t="s">
+        <v>60</v>
+      </c>
+      <c r="F95" t="s">
         <v>812</v>
       </c>
-      <c r="D95" t="s">
-        <v>424</v>
-      </c>
-      <c r="E95" t="s">
-        <v>61</v>
-      </c>
-      <c r="F95" t="s">
+      <c r="G95" t="s">
+        <v>29</v>
+      </c>
+      <c r="H95" t="s">
+        <v>440</v>
+      </c>
+      <c r="I95" t="s">
         <v>813</v>
       </c>
-      <c r="G95" t="s">
-        <v>30</v>
-      </c>
-      <c r="H95" t="s">
-        <v>441</v>
-      </c>
-      <c r="I95" t="s">
+      <c r="J95" t="s">
         <v>814</v>
       </c>
-      <c r="J95" t="s">
+      <c r="K95" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="K95" s="1" t="s">
+      <c r="L95" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="L95" s="1" t="s">
+      <c r="M95" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="M95" s="1" t="s">
+      <c r="N95" s="1" t="s">
         <v>818</v>
-      </c>
-      <c r="N95" s="1" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
@@ -7955,43 +7955,43 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
+        <v>819</v>
+      </c>
+      <c r="C96" t="s">
         <v>820</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D96" t="s">
+        <v>447</v>
+      </c>
+      <c r="E96" t="s">
+        <v>60</v>
+      </c>
+      <c r="F96" t="s">
+        <v>749</v>
+      </c>
+      <c r="G96" t="s">
+        <v>281</v>
+      </c>
+      <c r="H96" t="s">
+        <v>192</v>
+      </c>
+      <c r="I96" t="s">
         <v>821</v>
       </c>
-      <c r="D96" t="s">
-        <v>448</v>
-      </c>
-      <c r="E96" t="s">
-        <v>61</v>
-      </c>
-      <c r="F96" t="s">
-        <v>750</v>
-      </c>
-      <c r="G96" t="s">
-        <v>282</v>
-      </c>
-      <c r="H96" t="s">
-        <v>193</v>
-      </c>
-      <c r="I96" t="s">
+      <c r="J96" t="s">
         <v>822</v>
       </c>
-      <c r="J96" t="s">
+      <c r="K96" s="1" t="s">
         <v>823</v>
       </c>
-      <c r="K96" s="1" t="s">
+      <c r="L96" s="1" t="s">
         <v>824</v>
       </c>
-      <c r="L96" s="1" t="s">
+      <c r="M96" s="1" t="s">
         <v>825</v>
       </c>
-      <c r="M96" s="1" t="s">
+      <c r="N96" s="1" t="s">
         <v>826</v>
-      </c>
-      <c r="N96" s="1" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
@@ -7999,40 +7999,40 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
+        <v>827</v>
+      </c>
+      <c r="C97" t="s">
         <v>828</v>
       </c>
-      <c r="C97" t="s">
+      <c r="D97" t="s">
+        <v>321</v>
+      </c>
+      <c r="E97" t="s">
+        <v>60</v>
+      </c>
+      <c r="F97" t="s">
+        <v>57</v>
+      </c>
+      <c r="G97" t="s">
+        <v>33</v>
+      </c>
+      <c r="H97" t="s">
+        <v>440</v>
+      </c>
+      <c r="I97" t="s">
         <v>829</v>
       </c>
-      <c r="D97" t="s">
-        <v>322</v>
-      </c>
-      <c r="E97" t="s">
-        <v>61</v>
-      </c>
-      <c r="F97" t="s">
-        <v>58</v>
-      </c>
-      <c r="G97" t="s">
-        <v>34</v>
-      </c>
-      <c r="H97" t="s">
-        <v>441</v>
-      </c>
-      <c r="I97" t="s">
+      <c r="K97" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="K97" s="1" t="s">
+      <c r="L97" s="1" t="s">
         <v>831</v>
       </c>
-      <c r="L97" s="1" t="s">
+      <c r="M97" s="1" t="s">
         <v>832</v>
       </c>
-      <c r="M97" s="1" t="s">
+      <c r="N97" s="1" t="s">
         <v>833</v>
-      </c>
-      <c r="N97" s="1" t="s">
-        <v>834</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
@@ -8040,43 +8040,43 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
+        <v>834</v>
+      </c>
+      <c r="C98" t="s">
         <v>835</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D98" t="s">
+        <v>102</v>
+      </c>
+      <c r="E98" t="s">
+        <v>60</v>
+      </c>
+      <c r="F98" t="s">
+        <v>20</v>
+      </c>
+      <c r="G98" t="s">
+        <v>42</v>
+      </c>
+      <c r="H98" t="s">
+        <v>72</v>
+      </c>
+      <c r="I98" t="s">
         <v>836</v>
       </c>
-      <c r="D98" t="s">
-        <v>103</v>
-      </c>
-      <c r="E98" t="s">
-        <v>61</v>
-      </c>
-      <c r="F98" t="s">
-        <v>21</v>
-      </c>
-      <c r="G98" t="s">
-        <v>43</v>
-      </c>
-      <c r="H98" t="s">
-        <v>73</v>
-      </c>
-      <c r="I98" t="s">
+      <c r="J98" t="s">
         <v>837</v>
       </c>
-      <c r="J98" t="s">
+      <c r="K98" s="1" t="s">
         <v>838</v>
       </c>
-      <c r="K98" s="1" t="s">
+      <c r="L98" s="1" t="s">
         <v>839</v>
       </c>
-      <c r="L98" s="1" t="s">
+      <c r="M98" s="1" t="s">
         <v>840</v>
       </c>
-      <c r="M98" s="1" t="s">
+      <c r="N98" s="1" t="s">
         <v>841</v>
-      </c>
-      <c r="N98" s="1" t="s">
-        <v>842</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
@@ -8084,43 +8084,43 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
+        <v>842</v>
+      </c>
+      <c r="C99" t="s">
         <v>843</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
         <v>844</v>
       </c>
-      <c r="D99" t="s">
+      <c r="E99" t="s">
+        <v>60</v>
+      </c>
+      <c r="F99" t="s">
+        <v>31</v>
+      </c>
+      <c r="G99" t="s">
+        <v>153</v>
+      </c>
+      <c r="H99" t="s">
+        <v>81</v>
+      </c>
+      <c r="I99" t="s">
         <v>845</v>
       </c>
-      <c r="E99" t="s">
-        <v>61</v>
-      </c>
-      <c r="F99" t="s">
-        <v>32</v>
-      </c>
-      <c r="G99" t="s">
-        <v>154</v>
-      </c>
-      <c r="H99" t="s">
-        <v>82</v>
-      </c>
-      <c r="I99" t="s">
+      <c r="J99" t="s">
         <v>846</v>
       </c>
-      <c r="J99" t="s">
+      <c r="K99" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M99" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="N99" s="1" t="s">
         <v>847</v>
-      </c>
-      <c r="K99" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L99" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M99" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="N99" s="1" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
@@ -8128,43 +8128,43 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
+        <v>848</v>
+      </c>
+      <c r="C100" t="s">
         <v>849</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D100" t="s">
+        <v>190</v>
+      </c>
+      <c r="E100" t="s">
+        <v>60</v>
+      </c>
+      <c r="F100" t="s">
+        <v>20</v>
+      </c>
+      <c r="G100" t="s">
+        <v>272</v>
+      </c>
+      <c r="H100" t="s">
+        <v>104</v>
+      </c>
+      <c r="I100" t="s">
         <v>850</v>
       </c>
-      <c r="D100" t="s">
-        <v>191</v>
-      </c>
-      <c r="E100" t="s">
-        <v>61</v>
-      </c>
-      <c r="F100" t="s">
-        <v>21</v>
-      </c>
-      <c r="G100" t="s">
-        <v>273</v>
-      </c>
-      <c r="H100" t="s">
-        <v>105</v>
-      </c>
-      <c r="I100" t="s">
+      <c r="J100" t="s">
         <v>851</v>
       </c>
-      <c r="J100" t="s">
+      <c r="K100" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L100" s="1" t="s">
         <v>852</v>
       </c>
-      <c r="K100" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L100" s="1" t="s">
+      <c r="M100" s="1" t="s">
         <v>853</v>
       </c>
-      <c r="M100" s="1" t="s">
+      <c r="N100" s="1" t="s">
         <v>854</v>
-      </c>
-      <c r="N100" s="1" t="s">
-        <v>855</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
@@ -8172,43 +8172,43 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
+        <v>855</v>
+      </c>
+      <c r="C101" t="s">
         <v>856</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D101" t="s">
+        <v>469</v>
+      </c>
+      <c r="E101" t="s">
+        <v>60</v>
+      </c>
+      <c r="F101" t="s">
+        <v>461</v>
+      </c>
+      <c r="G101" t="s">
+        <v>146</v>
+      </c>
+      <c r="H101" t="s">
+        <v>81</v>
+      </c>
+      <c r="I101" t="s">
         <v>857</v>
       </c>
-      <c r="D101" t="s">
-        <v>470</v>
-      </c>
-      <c r="E101" t="s">
-        <v>61</v>
-      </c>
-      <c r="F101" t="s">
-        <v>462</v>
-      </c>
-      <c r="G101" t="s">
-        <v>147</v>
-      </c>
-      <c r="H101" t="s">
-        <v>82</v>
-      </c>
-      <c r="I101" t="s">
+      <c r="J101" t="s">
         <v>858</v>
       </c>
-      <c r="J101" t="s">
+      <c r="K101" s="1" t="s">
         <v>859</v>
       </c>
-      <c r="K101" s="1" t="s">
+      <c r="L101" s="1" t="s">
         <v>860</v>
       </c>
-      <c r="L101" s="1" t="s">
+      <c r="M101" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="N101" s="1" t="s">
         <v>861</v>
-      </c>
-      <c r="M101" s="1" t="s">
-        <v>831</v>
-      </c>
-      <c r="N101" s="1" t="s">
-        <v>862</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
@@ -8216,40 +8216,40 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
+        <v>862</v>
+      </c>
+      <c r="C102" t="s">
         <v>863</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D102" t="s">
         <v>864</v>
       </c>
-      <c r="D102" t="s">
+      <c r="E102" t="s">
+        <v>60</v>
+      </c>
+      <c r="F102" t="s">
+        <v>37</v>
+      </c>
+      <c r="G102" t="s">
         <v>865</v>
       </c>
-      <c r="E102" t="s">
-        <v>61</v>
-      </c>
-      <c r="F102" t="s">
-        <v>38</v>
-      </c>
-      <c r="G102" t="s">
+      <c r="H102" t="s">
+        <v>104</v>
+      </c>
+      <c r="I102" t="s">
         <v>866</v>
       </c>
-      <c r="H102" t="s">
-        <v>105</v>
-      </c>
-      <c r="I102" t="s">
+      <c r="K102" s="1" t="s">
         <v>867</v>
       </c>
-      <c r="K102" s="1" t="s">
+      <c r="L102" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="L102" s="1" t="s">
+      <c r="M102" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="N102" s="1" t="s">
         <v>869</v>
-      </c>
-      <c r="M102" s="1" t="s">
-        <v>816</v>
-      </c>
-      <c r="N102" s="1" t="s">
-        <v>870</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
@@ -8257,43 +8257,43 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
+        <v>870</v>
+      </c>
+      <c r="C103" t="s">
         <v>871</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
         <v>872</v>
       </c>
-      <c r="D103" t="s">
+      <c r="E103" t="s">
+        <v>60</v>
+      </c>
+      <c r="F103" t="s">
+        <v>41</v>
+      </c>
+      <c r="G103" t="s">
+        <v>130</v>
+      </c>
+      <c r="H103" t="s">
+        <v>62</v>
+      </c>
+      <c r="I103" t="s">
         <v>873</v>
       </c>
-      <c r="E103" t="s">
-        <v>61</v>
-      </c>
-      <c r="F103" t="s">
-        <v>42</v>
-      </c>
-      <c r="G103" t="s">
-        <v>131</v>
-      </c>
-      <c r="H103" t="s">
-        <v>63</v>
-      </c>
-      <c r="I103" t="s">
+      <c r="J103" t="s">
         <v>874</v>
       </c>
-      <c r="J103" t="s">
+      <c r="K103" s="1" t="s">
         <v>875</v>
       </c>
-      <c r="K103" s="1" t="s">
+      <c r="L103" s="1" t="s">
         <v>876</v>
       </c>
-      <c r="L103" s="1" t="s">
-        <v>877</v>
-      </c>
       <c r="M103" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="N103" s="1" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
@@ -8301,43 +8301,43 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
+        <v>877</v>
+      </c>
+      <c r="C104" t="s">
         <v>878</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D104" t="s">
+        <v>361</v>
+      </c>
+      <c r="E104" t="s">
+        <v>60</v>
+      </c>
+      <c r="F104" t="s">
+        <v>797</v>
+      </c>
+      <c r="G104" t="s">
+        <v>198</v>
+      </c>
+      <c r="H104" t="s">
+        <v>81</v>
+      </c>
+      <c r="I104" t="s">
         <v>879</v>
       </c>
-      <c r="D104" t="s">
-        <v>362</v>
-      </c>
-      <c r="E104" t="s">
-        <v>61</v>
-      </c>
-      <c r="F104" t="s">
-        <v>798</v>
-      </c>
-      <c r="G104" t="s">
-        <v>199</v>
-      </c>
-      <c r="H104" t="s">
-        <v>82</v>
-      </c>
-      <c r="I104" t="s">
+      <c r="J104" t="s">
         <v>880</v>
       </c>
-      <c r="J104" t="s">
+      <c r="K104" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L104" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="K104" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L104" s="1" t="s">
+      <c r="M104" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N104" s="1" t="s">
         <v>882</v>
-      </c>
-      <c r="M104" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N104" s="1" t="s">
-        <v>883</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
@@ -8345,43 +8345,43 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
+        <v>883</v>
+      </c>
+      <c r="C105" t="s">
         <v>884</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
+        <v>93</v>
+      </c>
+      <c r="E105" t="s">
+        <v>60</v>
+      </c>
+      <c r="F105" t="s">
+        <v>797</v>
+      </c>
+      <c r="G105" t="s">
+        <v>297</v>
+      </c>
+      <c r="H105" t="s">
+        <v>62</v>
+      </c>
+      <c r="I105" t="s">
         <v>885</v>
       </c>
-      <c r="D105" t="s">
-        <v>94</v>
-      </c>
-      <c r="E105" t="s">
-        <v>61</v>
-      </c>
-      <c r="F105" t="s">
-        <v>798</v>
-      </c>
-      <c r="G105" t="s">
-        <v>298</v>
-      </c>
-      <c r="H105" t="s">
-        <v>63</v>
-      </c>
-      <c r="I105" t="s">
+      <c r="J105" t="s">
         <v>886</v>
       </c>
-      <c r="J105" t="s">
+      <c r="K105" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="L105" s="1" t="s">
         <v>887</v>
       </c>
-      <c r="K105" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="L105" s="1" t="s">
+      <c r="M105" s="1" t="s">
         <v>888</v>
       </c>
-      <c r="M105" s="1" t="s">
+      <c r="N105" s="1" t="s">
         <v>889</v>
-      </c>
-      <c r="N105" s="1" t="s">
-        <v>890</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
@@ -8389,40 +8389,40 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
+        <v>890</v>
+      </c>
+      <c r="C106" t="s">
         <v>891</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
+        <v>647</v>
+      </c>
+      <c r="E106" t="s">
+        <v>60</v>
+      </c>
+      <c r="F106" t="s">
+        <v>265</v>
+      </c>
+      <c r="G106" t="s">
+        <v>146</v>
+      </c>
+      <c r="H106" t="s">
+        <v>255</v>
+      </c>
+      <c r="I106" t="s">
         <v>892</v>
       </c>
-      <c r="D106" t="s">
-        <v>648</v>
-      </c>
-      <c r="E106" t="s">
-        <v>61</v>
-      </c>
-      <c r="F106" t="s">
-        <v>266</v>
-      </c>
-      <c r="G106" t="s">
-        <v>147</v>
-      </c>
-      <c r="H106" t="s">
-        <v>256</v>
-      </c>
-      <c r="I106" t="s">
+      <c r="K106" s="1" t="s">
         <v>893</v>
       </c>
-      <c r="K106" s="1" t="s">
+      <c r="L106" s="1" t="s">
         <v>894</v>
       </c>
-      <c r="L106" s="1" t="s">
+      <c r="M106" s="1" t="s">
         <v>895</v>
       </c>
-      <c r="M106" s="1" t="s">
+      <c r="N106" s="1" t="s">
         <v>896</v>
-      </c>
-      <c r="N106" s="1" t="s">
-        <v>897</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
@@ -8430,40 +8430,40 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
+        <v>897</v>
+      </c>
+      <c r="C107" t="s">
         <v>898</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D107" t="s">
         <v>899</v>
       </c>
-      <c r="D107" t="s">
+      <c r="E107" t="s">
+        <v>60</v>
+      </c>
+      <c r="F107" t="s">
+        <v>15</v>
+      </c>
+      <c r="G107" t="s">
+        <v>205</v>
+      </c>
+      <c r="H107" t="s">
+        <v>192</v>
+      </c>
+      <c r="I107" t="s">
         <v>900</v>
       </c>
-      <c r="E107" t="s">
-        <v>61</v>
-      </c>
-      <c r="F107" t="s">
-        <v>16</v>
-      </c>
-      <c r="G107" t="s">
-        <v>206</v>
-      </c>
-      <c r="H107" t="s">
-        <v>193</v>
-      </c>
-      <c r="I107" t="s">
+      <c r="K107" s="1" t="s">
         <v>901</v>
       </c>
-      <c r="K107" s="1" t="s">
+      <c r="L107" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="L107" s="1" t="s">
+      <c r="M107" s="1" t="s">
         <v>903</v>
       </c>
-      <c r="M107" s="1" t="s">
+      <c r="N107" s="1" t="s">
         <v>904</v>
-      </c>
-      <c r="N107" s="1" t="s">
-        <v>905</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
@@ -8471,40 +8471,40 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
+        <v>905</v>
+      </c>
+      <c r="C108" t="s">
         <v>906</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
         <v>907</v>
       </c>
-      <c r="D108" t="s">
+      <c r="E108" t="s">
+        <v>60</v>
+      </c>
+      <c r="F108" t="s">
         <v>908</v>
       </c>
-      <c r="E108" t="s">
-        <v>61</v>
-      </c>
-      <c r="F108" t="s">
+      <c r="G108" t="s">
+        <v>198</v>
+      </c>
+      <c r="H108" t="s">
+        <v>255</v>
+      </c>
+      <c r="I108" t="s">
         <v>909</v>
       </c>
-      <c r="G108" t="s">
-        <v>199</v>
-      </c>
-      <c r="H108" t="s">
-        <v>256</v>
-      </c>
-      <c r="I108" t="s">
+      <c r="K108" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L108" s="1" t="s">
         <v>910</v>
       </c>
-      <c r="K108" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L108" s="1" t="s">
+      <c r="M108" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N108" s="1" t="s">
         <v>911</v>
-      </c>
-      <c r="M108" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N108" s="1" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
@@ -8512,40 +8512,40 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
+        <v>912</v>
+      </c>
+      <c r="C109" t="s">
         <v>913</v>
       </c>
-      <c r="C109" t="s">
+      <c r="D109" t="s">
         <v>914</v>
       </c>
-      <c r="D109" t="s">
+      <c r="E109" t="s">
+        <v>60</v>
+      </c>
+      <c r="F109" t="s">
         <v>915</v>
       </c>
-      <c r="E109" t="s">
-        <v>61</v>
-      </c>
-      <c r="F109" t="s">
+      <c r="G109" t="s">
+        <v>252</v>
+      </c>
+      <c r="H109" t="s">
+        <v>192</v>
+      </c>
+      <c r="I109" t="s">
         <v>916</v>
       </c>
-      <c r="G109" t="s">
-        <v>253</v>
-      </c>
-      <c r="H109" t="s">
-        <v>193</v>
-      </c>
-      <c r="I109" t="s">
+      <c r="K109" s="1" t="s">
         <v>917</v>
       </c>
-      <c r="K109" s="1" t="s">
+      <c r="L109" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="M109" s="1" t="s">
         <v>918</v>
       </c>
-      <c r="L109" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="M109" s="1" t="s">
+      <c r="N109" s="1" t="s">
         <v>919</v>
-      </c>
-      <c r="N109" s="1" t="s">
-        <v>920</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
@@ -8553,40 +8553,40 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
+        <v>920</v>
+      </c>
+      <c r="C110" t="s">
         <v>921</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110" t="s">
         <v>922</v>
       </c>
-      <c r="D110" t="s">
+      <c r="E110" t="s">
+        <v>60</v>
+      </c>
+      <c r="F110" t="s">
+        <v>20</v>
+      </c>
+      <c r="G110" t="s">
         <v>923</v>
       </c>
-      <c r="E110" t="s">
-        <v>61</v>
-      </c>
-      <c r="F110" t="s">
-        <v>21</v>
-      </c>
-      <c r="G110" t="s">
+      <c r="H110" t="s">
+        <v>104</v>
+      </c>
+      <c r="I110" t="s">
         <v>924</v>
       </c>
-      <c r="H110" t="s">
-        <v>105</v>
-      </c>
-      <c r="I110" t="s">
+      <c r="K110" s="1" t="s">
         <v>925</v>
       </c>
-      <c r="K110" s="1" t="s">
+      <c r="L110" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="L110" s="1" t="s">
+      <c r="M110" s="1" t="s">
         <v>927</v>
       </c>
-      <c r="M110" s="1" t="s">
+      <c r="N110" s="1" t="s">
         <v>928</v>
-      </c>
-      <c r="N110" s="1" t="s">
-        <v>929</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
@@ -8594,43 +8594,43 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
+        <v>929</v>
+      </c>
+      <c r="C111" t="s">
         <v>930</v>
       </c>
-      <c r="C111" t="s">
+      <c r="D111" t="s">
+        <v>148</v>
+      </c>
+      <c r="E111" t="s">
+        <v>60</v>
+      </c>
+      <c r="F111" t="s">
+        <v>123</v>
+      </c>
+      <c r="G111" t="s">
+        <v>478</v>
+      </c>
+      <c r="H111" t="s">
+        <v>192</v>
+      </c>
+      <c r="I111" t="s">
         <v>931</v>
       </c>
-      <c r="D111" t="s">
-        <v>149</v>
-      </c>
-      <c r="E111" t="s">
-        <v>61</v>
-      </c>
-      <c r="F111" t="s">
-        <v>124</v>
-      </c>
-      <c r="G111" t="s">
-        <v>479</v>
-      </c>
-      <c r="H111" t="s">
-        <v>193</v>
-      </c>
-      <c r="I111" t="s">
+      <c r="J111" t="s">
         <v>932</v>
       </c>
-      <c r="J111" t="s">
+      <c r="K111" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="L111" s="1" t="s">
         <v>933</v>
       </c>
-      <c r="K111" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="L111" s="1" t="s">
+      <c r="M111" s="1" t="s">
         <v>934</v>
       </c>
-      <c r="M111" s="1" t="s">
-        <v>935</v>
-      </c>
       <c r="N111" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
@@ -8638,40 +8638,40 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
+        <v>935</v>
+      </c>
+      <c r="C112" t="s">
         <v>936</v>
       </c>
-      <c r="C112" t="s">
+      <c r="D112" t="s">
+        <v>122</v>
+      </c>
+      <c r="E112" t="s">
+        <v>60</v>
+      </c>
+      <c r="F112" t="s">
+        <v>191</v>
+      </c>
+      <c r="G112" t="s">
+        <v>243</v>
+      </c>
+      <c r="H112" t="s">
+        <v>104</v>
+      </c>
+      <c r="I112" t="s">
         <v>937</v>
       </c>
-      <c r="D112" t="s">
-        <v>123</v>
-      </c>
-      <c r="E112" t="s">
-        <v>61</v>
-      </c>
-      <c r="F112" t="s">
-        <v>192</v>
-      </c>
-      <c r="G112" t="s">
-        <v>244</v>
-      </c>
-      <c r="H112" t="s">
-        <v>105</v>
-      </c>
-      <c r="I112" t="s">
+      <c r="K112" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="L112" s="1" t="s">
         <v>938</v>
       </c>
-      <c r="K112" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="L112" s="1" t="s">
+      <c r="M112" s="1" t="s">
         <v>939</v>
       </c>
-      <c r="M112" s="1" t="s">
+      <c r="N112" s="1" t="s">
         <v>940</v>
-      </c>
-      <c r="N112" s="1" t="s">
-        <v>941</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
@@ -8679,40 +8679,40 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
+        <v>941</v>
+      </c>
+      <c r="C113" t="s">
         <v>942</v>
       </c>
-      <c r="C113" t="s">
+      <c r="D113" t="s">
+        <v>303</v>
+      </c>
+      <c r="E113" t="s">
+        <v>60</v>
+      </c>
+      <c r="F113" t="s">
+        <v>37</v>
+      </c>
+      <c r="G113" t="s">
+        <v>281</v>
+      </c>
+      <c r="H113" t="s">
+        <v>255</v>
+      </c>
+      <c r="I113" t="s">
         <v>943</v>
       </c>
-      <c r="D113" t="s">
-        <v>304</v>
-      </c>
-      <c r="E113" t="s">
-        <v>61</v>
-      </c>
-      <c r="F113" t="s">
-        <v>38</v>
-      </c>
-      <c r="G113" t="s">
-        <v>282</v>
-      </c>
-      <c r="H113" t="s">
-        <v>256</v>
-      </c>
-      <c r="I113" t="s">
+      <c r="K113" s="1" t="s">
         <v>944</v>
       </c>
-      <c r="K113" s="1" t="s">
+      <c r="L113" s="1" t="s">
         <v>945</v>
       </c>
-      <c r="L113" s="1" t="s">
+      <c r="M113" s="1" t="s">
         <v>946</v>
       </c>
-      <c r="M113" s="1" t="s">
+      <c r="N113" s="1" t="s">
         <v>947</v>
-      </c>
-      <c r="N113" s="1" t="s">
-        <v>948</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
@@ -8720,43 +8720,43 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
+        <v>948</v>
+      </c>
+      <c r="C114" t="s">
         <v>949</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114" t="s">
+        <v>236</v>
+      </c>
+      <c r="E114" t="s">
+        <v>60</v>
+      </c>
+      <c r="F114" t="s">
         <v>950</v>
       </c>
-      <c r="D114" t="s">
-        <v>237</v>
-      </c>
-      <c r="E114" t="s">
-        <v>61</v>
-      </c>
-      <c r="F114" t="s">
+      <c r="G114" t="s">
+        <v>205</v>
+      </c>
+      <c r="H114" t="s">
+        <v>132</v>
+      </c>
+      <c r="I114" t="s">
         <v>951</v>
       </c>
-      <c r="G114" t="s">
-        <v>206</v>
-      </c>
-      <c r="H114" t="s">
-        <v>133</v>
-      </c>
-      <c r="I114" t="s">
+      <c r="J114" t="s">
         <v>952</v>
       </c>
-      <c r="J114" t="s">
+      <c r="K114" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="L114" s="1" t="s">
         <v>953</v>
       </c>
-      <c r="K114" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="L114" s="1" t="s">
+      <c r="M114" s="1" t="s">
         <v>954</v>
       </c>
-      <c r="M114" s="1" t="s">
+      <c r="N114" s="1" t="s">
         <v>955</v>
-      </c>
-      <c r="N114" s="1" t="s">
-        <v>956</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.25">
@@ -8764,43 +8764,43 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
+        <v>956</v>
+      </c>
+      <c r="C115" t="s">
         <v>957</v>
       </c>
-      <c r="C115" t="s">
+      <c r="D115" t="s">
+        <v>102</v>
+      </c>
+      <c r="E115" t="s">
+        <v>60</v>
+      </c>
+      <c r="F115" t="s">
+        <v>23</v>
+      </c>
+      <c r="G115" t="s">
+        <v>42</v>
+      </c>
+      <c r="H115" t="s">
+        <v>440</v>
+      </c>
+      <c r="I115" t="s">
         <v>958</v>
       </c>
-      <c r="D115" t="s">
-        <v>103</v>
-      </c>
-      <c r="E115" t="s">
-        <v>61</v>
-      </c>
-      <c r="F115" t="s">
-        <v>24</v>
-      </c>
-      <c r="G115" t="s">
-        <v>43</v>
-      </c>
-      <c r="H115" t="s">
-        <v>441</v>
-      </c>
-      <c r="I115" t="s">
+      <c r="J115" t="s">
         <v>959</v>
       </c>
-      <c r="J115" t="s">
+      <c r="K115" s="1" t="s">
         <v>960</v>
       </c>
-      <c r="K115" s="1" t="s">
+      <c r="L115" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="M115" s="1" t="s">
         <v>961</v>
       </c>
-      <c r="L115" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="M115" s="1" t="s">
-        <v>962</v>
-      </c>
       <c r="N115" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.25">
@@ -8808,43 +8808,43 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
+        <v>962</v>
+      </c>
+      <c r="C116" t="s">
         <v>963</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D116" t="s">
+        <v>236</v>
+      </c>
+      <c r="E116" t="s">
+        <v>60</v>
+      </c>
+      <c r="F116" t="s">
+        <v>23</v>
+      </c>
+      <c r="G116" t="s">
+        <v>281</v>
+      </c>
+      <c r="H116" t="s">
+        <v>81</v>
+      </c>
+      <c r="I116" t="s">
         <v>964</v>
       </c>
-      <c r="D116" t="s">
-        <v>237</v>
-      </c>
-      <c r="E116" t="s">
-        <v>61</v>
-      </c>
-      <c r="F116" t="s">
-        <v>24</v>
-      </c>
-      <c r="G116" t="s">
-        <v>282</v>
-      </c>
-      <c r="H116" t="s">
-        <v>82</v>
-      </c>
-      <c r="I116" t="s">
+      <c r="J116" t="s">
         <v>965</v>
       </c>
-      <c r="J116" t="s">
+      <c r="K116" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L116" s="1" t="s">
         <v>966</v>
       </c>
-      <c r="K116" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L116" s="1" t="s">
+      <c r="M116" s="1" t="s">
         <v>967</v>
       </c>
-      <c r="M116" s="1" t="s">
+      <c r="N116" s="1" t="s">
         <v>968</v>
-      </c>
-      <c r="N116" s="1" t="s">
-        <v>969</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
@@ -8852,43 +8852,43 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
+        <v>969</v>
+      </c>
+      <c r="C117" t="s">
         <v>970</v>
       </c>
-      <c r="C117" t="s">
+      <c r="D117" t="s">
+        <v>190</v>
+      </c>
+      <c r="E117" t="s">
+        <v>60</v>
+      </c>
+      <c r="F117" t="s">
+        <v>20</v>
+      </c>
+      <c r="G117" t="s">
+        <v>369</v>
+      </c>
+      <c r="H117" t="s">
+        <v>104</v>
+      </c>
+      <c r="I117" t="s">
         <v>971</v>
       </c>
-      <c r="D117" t="s">
-        <v>191</v>
-      </c>
-      <c r="E117" t="s">
-        <v>61</v>
-      </c>
-      <c r="F117" t="s">
-        <v>21</v>
-      </c>
-      <c r="G117" t="s">
-        <v>370</v>
-      </c>
-      <c r="H117" t="s">
-        <v>105</v>
-      </c>
-      <c r="I117" t="s">
+      <c r="J117" t="s">
         <v>972</v>
       </c>
-      <c r="J117" t="s">
+      <c r="K117" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="L117" s="1" t="s">
         <v>973</v>
       </c>
-      <c r="K117" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="L117" s="1" t="s">
+      <c r="M117" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="N117" s="1" t="s">
         <v>974</v>
-      </c>
-      <c r="M117" s="1" t="s">
-        <v>868</v>
-      </c>
-      <c r="N117" s="1" t="s">
-        <v>975</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
@@ -8896,43 +8896,43 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
+        <v>975</v>
+      </c>
+      <c r="C118" t="s">
         <v>976</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
+        <v>899</v>
+      </c>
+      <c r="E118" t="s">
+        <v>60</v>
+      </c>
+      <c r="F118" t="s">
+        <v>50</v>
+      </c>
+      <c r="G118" t="s">
+        <v>111</v>
+      </c>
+      <c r="H118" t="s">
+        <v>62</v>
+      </c>
+      <c r="I118" t="s">
         <v>977</v>
       </c>
-      <c r="D118" t="s">
-        <v>900</v>
-      </c>
-      <c r="E118" t="s">
-        <v>61</v>
-      </c>
-      <c r="F118" t="s">
-        <v>51</v>
-      </c>
-      <c r="G118" t="s">
-        <v>112</v>
-      </c>
-      <c r="H118" t="s">
-        <v>63</v>
-      </c>
-      <c r="I118" t="s">
+      <c r="J118" t="s">
         <v>978</v>
       </c>
-      <c r="J118" t="s">
+      <c r="K118" s="1" t="s">
         <v>979</v>
       </c>
-      <c r="K118" s="1" t="s">
+      <c r="L118" s="1" t="s">
         <v>980</v>
       </c>
-      <c r="L118" s="1" t="s">
+      <c r="M118" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="N118" s="1" t="s">
         <v>981</v>
-      </c>
-      <c r="M118" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="N118" s="1" t="s">
-        <v>982</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
@@ -8940,43 +8940,43 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
+        <v>982</v>
+      </c>
+      <c r="C119" t="s">
         <v>983</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D119" t="s">
         <v>984</v>
       </c>
-      <c r="D119" t="s">
+      <c r="E119" t="s">
+        <v>60</v>
+      </c>
+      <c r="F119" t="s">
+        <v>461</v>
+      </c>
+      <c r="G119" t="s">
+        <v>476</v>
+      </c>
+      <c r="H119" t="s">
+        <v>104</v>
+      </c>
+      <c r="I119" t="s">
         <v>985</v>
       </c>
-      <c r="E119" t="s">
-        <v>61</v>
-      </c>
-      <c r="F119" t="s">
-        <v>462</v>
-      </c>
-      <c r="G119" t="s">
-        <v>477</v>
-      </c>
-      <c r="H119" t="s">
-        <v>105</v>
-      </c>
-      <c r="I119" t="s">
+      <c r="J119" t="s">
         <v>986</v>
       </c>
-      <c r="J119" t="s">
+      <c r="K119" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="L119" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="M119" s="1" t="s">
         <v>987</v>
       </c>
-      <c r="K119" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="L119" s="1" t="s">
-        <v>861</v>
-      </c>
-      <c r="M119" s="1" t="s">
+      <c r="N119" s="1" t="s">
         <v>988</v>
-      </c>
-      <c r="N119" s="1" t="s">
-        <v>989</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
@@ -8984,43 +8984,43 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
+        <v>989</v>
+      </c>
+      <c r="C120" t="s">
         <v>990</v>
       </c>
-      <c r="C120" t="s">
+      <c r="D120" t="s">
+        <v>79</v>
+      </c>
+      <c r="E120" t="s">
+        <v>60</v>
+      </c>
+      <c r="F120" t="s">
+        <v>103</v>
+      </c>
+      <c r="G120" t="s">
+        <v>29</v>
+      </c>
+      <c r="H120" t="s">
+        <v>181</v>
+      </c>
+      <c r="I120" t="s">
         <v>991</v>
       </c>
-      <c r="D120" t="s">
-        <v>80</v>
-      </c>
-      <c r="E120" t="s">
-        <v>61</v>
-      </c>
-      <c r="F120" t="s">
-        <v>104</v>
-      </c>
-      <c r="G120" t="s">
-        <v>30</v>
-      </c>
-      <c r="H120" t="s">
-        <v>182</v>
-      </c>
-      <c r="I120" t="s">
+      <c r="J120" t="s">
         <v>992</v>
       </c>
-      <c r="J120" t="s">
+      <c r="K120" s="1" t="s">
         <v>993</v>
       </c>
-      <c r="K120" s="1" t="s">
+      <c r="L120" s="1" t="s">
         <v>994</v>
       </c>
-      <c r="L120" s="1" t="s">
+      <c r="M120" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N120" s="1" t="s">
         <v>995</v>
-      </c>
-      <c r="M120" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N120" s="1" t="s">
-        <v>996</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
@@ -9028,40 +9028,40 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
+        <v>996</v>
+      </c>
+      <c r="C121" t="s">
+        <v>694</v>
+      </c>
+      <c r="D121" t="s">
+        <v>787</v>
+      </c>
+      <c r="E121" t="s">
+        <v>60</v>
+      </c>
+      <c r="F121" t="s">
+        <v>695</v>
+      </c>
+      <c r="G121" t="s">
+        <v>205</v>
+      </c>
+      <c r="H121" t="s">
+        <v>81</v>
+      </c>
+      <c r="I121" t="s">
         <v>997</v>
       </c>
-      <c r="C121" t="s">
-        <v>695</v>
-      </c>
-      <c r="D121" t="s">
-        <v>788</v>
-      </c>
-      <c r="E121" t="s">
-        <v>61</v>
-      </c>
-      <c r="F121" t="s">
-        <v>696</v>
-      </c>
-      <c r="G121" t="s">
-        <v>206</v>
-      </c>
-      <c r="H121" t="s">
-        <v>82</v>
-      </c>
-      <c r="I121" t="s">
+      <c r="K121" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="L121" s="1" t="s">
         <v>998</v>
       </c>
-      <c r="K121" s="1" t="s">
-        <v>980</v>
-      </c>
-      <c r="L121" s="1" t="s">
+      <c r="M121" s="1" t="s">
         <v>999</v>
       </c>
-      <c r="M121" s="1" t="s">
+      <c r="N121" s="1" t="s">
         <v>1000</v>
-      </c>
-      <c r="N121" s="1" t="s">
-        <v>1001</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
@@ -9069,43 +9069,43 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C122" t="s">
         <v>1002</v>
       </c>
-      <c r="C122" t="s">
+      <c r="D122" t="s">
+        <v>469</v>
+      </c>
+      <c r="E122" t="s">
+        <v>60</v>
+      </c>
+      <c r="F122" t="s">
+        <v>23</v>
+      </c>
+      <c r="G122" t="s">
+        <v>205</v>
+      </c>
+      <c r="H122" t="s">
+        <v>255</v>
+      </c>
+      <c r="I122" t="s">
         <v>1003</v>
       </c>
-      <c r="D122" t="s">
-        <v>470</v>
-      </c>
-      <c r="E122" t="s">
-        <v>61</v>
-      </c>
-      <c r="F122" t="s">
-        <v>24</v>
-      </c>
-      <c r="G122" t="s">
-        <v>206</v>
-      </c>
-      <c r="H122" t="s">
-        <v>256</v>
-      </c>
-      <c r="I122" t="s">
+      <c r="J122" t="s">
         <v>1004</v>
       </c>
-      <c r="J122" t="s">
+      <c r="K122" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="L122" s="1" t="s">
         <v>1005</v>
       </c>
-      <c r="K122" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="L122" s="1" t="s">
+      <c r="M122" s="1" t="s">
         <v>1006</v>
       </c>
-      <c r="M122" s="1" t="s">
+      <c r="N122" s="1" t="s">
         <v>1007</v>
-      </c>
-      <c r="N122" s="1" t="s">
-        <v>1008</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
@@ -9113,43 +9113,43 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C123" t="s">
         <v>1009</v>
       </c>
-      <c r="C123" t="s">
+      <c r="D123" t="s">
         <v>1010</v>
       </c>
-      <c r="D123" t="s">
+      <c r="E123" t="s">
+        <v>60</v>
+      </c>
+      <c r="F123" t="s">
+        <v>20</v>
+      </c>
+      <c r="G123" t="s">
+        <v>252</v>
+      </c>
+      <c r="H123" t="s">
+        <v>132</v>
+      </c>
+      <c r="I123" t="s">
         <v>1011</v>
       </c>
-      <c r="E123" t="s">
-        <v>61</v>
-      </c>
-      <c r="F123" t="s">
-        <v>21</v>
-      </c>
-      <c r="G123" t="s">
-        <v>253</v>
-      </c>
-      <c r="H123" t="s">
-        <v>133</v>
-      </c>
-      <c r="I123" t="s">
+      <c r="J123" t="s">
         <v>1012</v>
       </c>
-      <c r="J123" t="s">
+      <c r="K123" s="1" t="s">
         <v>1013</v>
       </c>
-      <c r="K123" s="1" t="s">
+      <c r="L123" s="1" t="s">
         <v>1014</v>
       </c>
-      <c r="L123" s="1" t="s">
+      <c r="M123" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="M123" s="1" t="s">
+      <c r="N123" s="1" t="s">
         <v>1016</v>
-      </c>
-      <c r="N123" s="1" t="s">
-        <v>1017</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
@@ -9157,40 +9157,40 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C124" t="s">
         <v>1018</v>
       </c>
-      <c r="C124" t="s">
+      <c r="D124" t="s">
         <v>1019</v>
       </c>
-      <c r="D124" t="s">
+      <c r="E124" t="s">
+        <v>60</v>
+      </c>
+      <c r="F124" t="s">
+        <v>265</v>
+      </c>
+      <c r="G124" t="s">
+        <v>220</v>
+      </c>
+      <c r="H124" t="s">
+        <v>192</v>
+      </c>
+      <c r="I124" t="s">
         <v>1020</v>
       </c>
-      <c r="E124" t="s">
-        <v>61</v>
-      </c>
-      <c r="F124" t="s">
-        <v>266</v>
-      </c>
-      <c r="G124" t="s">
-        <v>221</v>
-      </c>
-      <c r="H124" t="s">
-        <v>193</v>
-      </c>
-      <c r="I124" t="s">
+      <c r="K124" s="1" t="s">
         <v>1021</v>
       </c>
-      <c r="K124" s="1" t="s">
+      <c r="L124" s="1" t="s">
         <v>1022</v>
       </c>
-      <c r="L124" s="1" t="s">
+      <c r="M124" s="1" t="s">
         <v>1023</v>
       </c>
-      <c r="M124" s="1" t="s">
+      <c r="N124" s="1" t="s">
         <v>1024</v>
-      </c>
-      <c r="N124" s="1" t="s">
-        <v>1025</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
@@ -9198,43 +9198,43 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C125" t="s">
         <v>1026</v>
       </c>
-      <c r="C125" t="s">
+      <c r="D125" t="s">
         <v>1027</v>
       </c>
-      <c r="D125" t="s">
+      <c r="E125" t="s">
+        <v>60</v>
+      </c>
+      <c r="F125" t="s">
+        <v>54</v>
+      </c>
+      <c r="G125" t="s">
+        <v>438</v>
+      </c>
+      <c r="H125" t="s">
+        <v>192</v>
+      </c>
+      <c r="I125" t="s">
         <v>1028</v>
       </c>
-      <c r="E125" t="s">
-        <v>61</v>
-      </c>
-      <c r="F125" t="s">
-        <v>55</v>
-      </c>
-      <c r="G125" t="s">
-        <v>439</v>
-      </c>
-      <c r="H125" t="s">
-        <v>193</v>
-      </c>
-      <c r="I125" t="s">
+      <c r="J125" t="s">
         <v>1029</v>
       </c>
-      <c r="J125" t="s">
+      <c r="K125" s="1" t="s">
         <v>1030</v>
       </c>
-      <c r="K125" s="1" t="s">
+      <c r="L125" s="1" t="s">
         <v>1031</v>
       </c>
-      <c r="L125" s="1" t="s">
+      <c r="M125" s="1" t="s">
         <v>1032</v>
       </c>
-      <c r="M125" s="1" t="s">
+      <c r="N125" s="1" t="s">
         <v>1033</v>
-      </c>
-      <c r="N125" s="1" t="s">
-        <v>1034</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
@@ -9242,43 +9242,43 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C126" t="s">
         <v>1035</v>
       </c>
-      <c r="C126" t="s">
+      <c r="D126" t="s">
         <v>1036</v>
       </c>
-      <c r="D126" t="s">
+      <c r="E126" t="s">
+        <v>60</v>
+      </c>
+      <c r="F126" t="s">
+        <v>331</v>
+      </c>
+      <c r="G126" t="s">
+        <v>13</v>
+      </c>
+      <c r="H126" t="s">
         <v>1037</v>
       </c>
-      <c r="E126" t="s">
-        <v>61</v>
-      </c>
-      <c r="F126" t="s">
-        <v>332</v>
-      </c>
-      <c r="G126" t="s">
-        <v>14</v>
-      </c>
-      <c r="H126" t="s">
+      <c r="I126" t="s">
         <v>1038</v>
       </c>
-      <c r="I126" t="s">
+      <c r="J126" t="s">
         <v>1039</v>
       </c>
-      <c r="J126" t="s">
+      <c r="K126" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L126" s="1" t="s">
         <v>1040</v>
       </c>
-      <c r="K126" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L126" s="1" t="s">
+      <c r="M126" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N126" s="1" t="s">
         <v>1041</v>
-      </c>
-      <c r="M126" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="N126" s="1" t="s">
-        <v>1042</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
@@ -9286,43 +9286,43 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C127" t="s">
         <v>1043</v>
       </c>
-      <c r="C127" t="s">
+      <c r="D127" t="s">
         <v>1044</v>
       </c>
-      <c r="D127" t="s">
+      <c r="E127" t="s">
+        <v>60</v>
+      </c>
+      <c r="F127" t="s">
+        <v>346</v>
+      </c>
+      <c r="G127" t="s">
+        <v>252</v>
+      </c>
+      <c r="H127" t="s">
+        <v>255</v>
+      </c>
+      <c r="I127" t="s">
         <v>1045</v>
       </c>
-      <c r="E127" t="s">
-        <v>61</v>
-      </c>
-      <c r="F127" t="s">
-        <v>347</v>
-      </c>
-      <c r="G127" t="s">
-        <v>253</v>
-      </c>
-      <c r="H127" t="s">
-        <v>256</v>
-      </c>
-      <c r="I127" t="s">
+      <c r="J127" t="s">
         <v>1046</v>
       </c>
-      <c r="J127" t="s">
+      <c r="K127" s="1" t="s">
         <v>1047</v>
       </c>
-      <c r="K127" s="1" t="s">
+      <c r="L127" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="L127" s="1" t="s">
+      <c r="M127" s="1" t="s">
         <v>1049</v>
       </c>
-      <c r="M127" s="1" t="s">
+      <c r="N127" s="1" t="s">
         <v>1050</v>
-      </c>
-      <c r="N127" s="1" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
@@ -9330,43 +9330,43 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C128" t="s">
         <v>1052</v>
       </c>
-      <c r="C128" t="s">
+      <c r="D128" t="s">
+        <v>229</v>
+      </c>
+      <c r="E128" t="s">
+        <v>60</v>
+      </c>
+      <c r="F128" t="s">
         <v>1053</v>
       </c>
-      <c r="D128" t="s">
-        <v>230</v>
-      </c>
-      <c r="E128" t="s">
-        <v>61</v>
-      </c>
-      <c r="F128" t="s">
+      <c r="G128" t="s">
+        <v>138</v>
+      </c>
+      <c r="H128" t="s">
+        <v>192</v>
+      </c>
+      <c r="I128" t="s">
         <v>1054</v>
       </c>
-      <c r="G128" t="s">
-        <v>139</v>
-      </c>
-      <c r="H128" t="s">
-        <v>193</v>
-      </c>
-      <c r="I128" t="s">
+      <c r="J128" t="s">
         <v>1055</v>
       </c>
-      <c r="J128" t="s">
+      <c r="K128" s="1" t="s">
         <v>1056</v>
       </c>
-      <c r="K128" s="1" t="s">
+      <c r="L128" s="1" t="s">
         <v>1057</v>
       </c>
-      <c r="L128" s="1" t="s">
+      <c r="M128" s="1" t="s">
         <v>1058</v>
       </c>
-      <c r="M128" s="1" t="s">
+      <c r="N128" s="1" t="s">
         <v>1059</v>
-      </c>
-      <c r="N128" s="1" t="s">
-        <v>1060</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
@@ -9374,43 +9374,43 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C129" t="s">
         <v>1061</v>
       </c>
-      <c r="C129" t="s">
+      <c r="D129" t="s">
         <v>1062</v>
       </c>
-      <c r="D129" t="s">
+      <c r="E129" t="s">
+        <v>60</v>
+      </c>
+      <c r="F129" t="s">
         <v>1063</v>
       </c>
-      <c r="E129" t="s">
-        <v>61</v>
-      </c>
-      <c r="F129" t="s">
+      <c r="G129" t="s">
+        <v>56</v>
+      </c>
+      <c r="H129" t="s">
+        <v>440</v>
+      </c>
+      <c r="I129" t="s">
         <v>1064</v>
       </c>
-      <c r="G129" t="s">
-        <v>57</v>
-      </c>
-      <c r="H129" t="s">
-        <v>441</v>
-      </c>
-      <c r="I129" t="s">
+      <c r="J129" t="s">
         <v>1065</v>
       </c>
-      <c r="J129" t="s">
+      <c r="K129" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="L129" s="1" t="s">
         <v>1066</v>
       </c>
-      <c r="K129" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="L129" s="1" t="s">
+      <c r="M129" s="1" t="s">
         <v>1067</v>
       </c>
-      <c r="M129" s="1" t="s">
+      <c r="N129" s="1" t="s">
         <v>1068</v>
-      </c>
-      <c r="N129" s="1" t="s">
-        <v>1069</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
@@ -9418,43 +9418,43 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C130" t="s">
+        <v>47</v>
+      </c>
+      <c r="D130" t="s">
+        <v>664</v>
+      </c>
+      <c r="E130" t="s">
+        <v>60</v>
+      </c>
+      <c r="F130" t="s">
+        <v>191</v>
+      </c>
+      <c r="G130" t="s">
+        <v>478</v>
+      </c>
+      <c r="H130" t="s">
+        <v>255</v>
+      </c>
+      <c r="I130" t="s">
         <v>1070</v>
       </c>
-      <c r="C130" t="s">
-        <v>48</v>
-      </c>
-      <c r="D130" t="s">
-        <v>665</v>
-      </c>
-      <c r="E130" t="s">
-        <v>61</v>
-      </c>
-      <c r="F130" t="s">
-        <v>192</v>
-      </c>
-      <c r="G130" t="s">
-        <v>479</v>
-      </c>
-      <c r="H130" t="s">
-        <v>256</v>
-      </c>
-      <c r="I130" t="s">
+      <c r="J130" t="s">
         <v>1071</v>
       </c>
-      <c r="J130" t="s">
+      <c r="K130" s="1" t="s">
         <v>1072</v>
       </c>
-      <c r="K130" s="1" t="s">
+      <c r="L130" s="1" t="s">
         <v>1073</v>
       </c>
-      <c r="L130" s="1" t="s">
+      <c r="M130" s="1" t="s">
         <v>1074</v>
       </c>
-      <c r="M130" s="1" t="s">
+      <c r="N130" s="1" t="s">
         <v>1075</v>
-      </c>
-      <c r="N130" s="1" t="s">
-        <v>1076</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
@@ -9462,40 +9462,40 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C131" t="s">
         <v>1077</v>
       </c>
-      <c r="C131" t="s">
+      <c r="D131" t="s">
+        <v>122</v>
+      </c>
+      <c r="E131" t="s">
+        <v>60</v>
+      </c>
+      <c r="F131" t="s">
         <v>1078</v>
       </c>
-      <c r="D131" t="s">
-        <v>123</v>
-      </c>
-      <c r="E131" t="s">
-        <v>61</v>
-      </c>
-      <c r="F131" t="s">
+      <c r="G131" t="s">
+        <v>294</v>
+      </c>
+      <c r="H131" t="s">
+        <v>192</v>
+      </c>
+      <c r="I131" t="s">
         <v>1079</v>
       </c>
-      <c r="G131" t="s">
-        <v>295</v>
-      </c>
-      <c r="H131" t="s">
-        <v>193</v>
-      </c>
-      <c r="I131" t="s">
+      <c r="K131" s="1" t="s">
         <v>1080</v>
       </c>
-      <c r="K131" s="1" t="s">
+      <c r="L131" s="1" t="s">
         <v>1081</v>
       </c>
-      <c r="L131" s="1" t="s">
+      <c r="M131" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="N131" s="1" t="s">
         <v>1082</v>
-      </c>
-      <c r="M131" s="1" t="s">
-        <v>809</v>
-      </c>
-      <c r="N131" s="1" t="s">
-        <v>1083</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
@@ -9503,40 +9503,40 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C132" t="s">
         <v>1084</v>
       </c>
-      <c r="C132" t="s">
+      <c r="D132" t="s">
         <v>1085</v>
       </c>
-      <c r="D132" t="s">
+      <c r="E132" t="s">
+        <v>60</v>
+      </c>
+      <c r="F132" t="s">
         <v>1086</v>
       </c>
-      <c r="E132" t="s">
-        <v>61</v>
-      </c>
-      <c r="F132" t="s">
+      <c r="G132" t="s">
+        <v>252</v>
+      </c>
+      <c r="H132" t="s">
+        <v>81</v>
+      </c>
+      <c r="I132" t="s">
         <v>1087</v>
       </c>
-      <c r="G132" t="s">
-        <v>253</v>
-      </c>
-      <c r="H132" t="s">
-        <v>82</v>
-      </c>
-      <c r="I132" t="s">
+      <c r="K132" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="L132" s="1" t="s">
         <v>1088</v>
       </c>
-      <c r="K132" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="L132" s="1" t="s">
+      <c r="M132" s="1" t="s">
         <v>1089</v>
       </c>
-      <c r="M132" s="1" t="s">
+      <c r="N132" s="1" t="s">
         <v>1090</v>
-      </c>
-      <c r="N132" s="1" t="s">
-        <v>1091</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
@@ -9544,40 +9544,40 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C133" t="s">
         <v>1092</v>
       </c>
-      <c r="C133" t="s">
+      <c r="D133" t="s">
+        <v>647</v>
+      </c>
+      <c r="E133" t="s">
+        <v>60</v>
+      </c>
+      <c r="F133" t="s">
+        <v>103</v>
+      </c>
+      <c r="G133" t="s">
+        <v>311</v>
+      </c>
+      <c r="H133" t="s">
+        <v>192</v>
+      </c>
+      <c r="I133" t="s">
         <v>1093</v>
       </c>
-      <c r="D133" t="s">
-        <v>648</v>
-      </c>
-      <c r="E133" t="s">
-        <v>61</v>
-      </c>
-      <c r="F133" t="s">
-        <v>104</v>
-      </c>
-      <c r="G133" t="s">
-        <v>312</v>
-      </c>
-      <c r="H133" t="s">
-        <v>193</v>
-      </c>
-      <c r="I133" t="s">
+      <c r="K133" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="L133" s="1" t="s">
         <v>1094</v>
       </c>
-      <c r="K133" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="L133" s="1" t="s">
+      <c r="M133" s="1" t="s">
         <v>1095</v>
       </c>
-      <c r="M133" s="1" t="s">
+      <c r="N133" s="1" t="s">
         <v>1096</v>
-      </c>
-      <c r="N133" s="1" t="s">
-        <v>1097</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
@@ -9585,43 +9585,43 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C134" t="s">
         <v>1098</v>
       </c>
-      <c r="C134" t="s">
+      <c r="D134" t="s">
+        <v>575</v>
+      </c>
+      <c r="E134" t="s">
+        <v>60</v>
+      </c>
+      <c r="F134" t="s">
+        <v>123</v>
+      </c>
+      <c r="G134" t="s">
+        <v>16</v>
+      </c>
+      <c r="H134" t="s">
+        <v>788</v>
+      </c>
+      <c r="I134" t="s">
         <v>1099</v>
       </c>
-      <c r="D134" t="s">
-        <v>576</v>
-      </c>
-      <c r="E134" t="s">
-        <v>61</v>
-      </c>
-      <c r="F134" t="s">
-        <v>124</v>
-      </c>
-      <c r="G134" t="s">
-        <v>17</v>
-      </c>
-      <c r="H134" t="s">
-        <v>789</v>
-      </c>
-      <c r="I134" t="s">
+      <c r="J134" t="s">
         <v>1100</v>
       </c>
-      <c r="J134" t="s">
+      <c r="K134" s="1" t="s">
         <v>1101</v>
       </c>
-      <c r="K134" s="1" t="s">
+      <c r="L134" s="1" t="s">
         <v>1102</v>
       </c>
-      <c r="L134" s="1" t="s">
+      <c r="M134" s="1" t="s">
         <v>1103</v>
       </c>
-      <c r="M134" s="1" t="s">
+      <c r="N134" s="1" t="s">
         <v>1104</v>
-      </c>
-      <c r="N134" s="1" t="s">
-        <v>1105</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
@@ -9629,43 +9629,43 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C135" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D135" t="s">
+        <v>102</v>
+      </c>
+      <c r="E135" t="s">
+        <v>60</v>
+      </c>
+      <c r="F135" t="s">
+        <v>31</v>
+      </c>
+      <c r="G135" t="s">
+        <v>56</v>
+      </c>
+      <c r="H135" t="s">
+        <v>156</v>
+      </c>
+      <c r="I135" t="s">
         <v>1106</v>
       </c>
-      <c r="C135" t="s">
+      <c r="J135" t="s">
         <v>1107</v>
       </c>
-      <c r="D135" t="s">
-        <v>103</v>
-      </c>
-      <c r="E135" t="s">
-        <v>61</v>
-      </c>
-      <c r="F135" t="s">
-        <v>32</v>
-      </c>
-      <c r="G135" t="s">
-        <v>57</v>
-      </c>
-      <c r="H135" t="s">
-        <v>157</v>
-      </c>
-      <c r="I135" t="s">
+      <c r="K135" s="1" t="s">
         <v>1108</v>
       </c>
-      <c r="J135" t="s">
+      <c r="L135" s="1" t="s">
         <v>1109</v>
       </c>
-      <c r="K135" s="1" t="s">
+      <c r="M135" s="1" t="s">
         <v>1110</v>
       </c>
-      <c r="L135" s="1" t="s">
+      <c r="N135" s="1" t="s">
         <v>1111</v>
-      </c>
-      <c r="M135" s="1" t="s">
-        <v>1112</v>
-      </c>
-      <c r="N135" s="1" t="s">
-        <v>1113</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
@@ -9673,43 +9673,43 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C136" t="s">
+        <v>330</v>
+      </c>
+      <c r="D136" t="s">
+        <v>229</v>
+      </c>
+      <c r="E136" t="s">
+        <v>60</v>
+      </c>
+      <c r="F136" t="s">
+        <v>1113</v>
+      </c>
+      <c r="G136" t="s">
+        <v>13</v>
+      </c>
+      <c r="H136" t="s">
         <v>1114</v>
       </c>
-      <c r="C136" t="s">
-        <v>331</v>
-      </c>
-      <c r="D136" t="s">
-        <v>230</v>
-      </c>
-      <c r="E136" t="s">
-        <v>61</v>
-      </c>
-      <c r="F136" t="s">
+      <c r="I136" t="s">
         <v>1115</v>
       </c>
-      <c r="G136" t="s">
-        <v>14</v>
-      </c>
-      <c r="H136" t="s">
+      <c r="J136" t="s">
         <v>1116</v>
       </c>
-      <c r="I136" t="s">
+      <c r="K136" s="1" t="s">
         <v>1117</v>
       </c>
-      <c r="J136" t="s">
+      <c r="L136" s="1" t="s">
         <v>1118</v>
       </c>
-      <c r="K136" s="1" t="s">
+      <c r="M136" s="1" t="s">
         <v>1119</v>
       </c>
-      <c r="L136" s="1" t="s">
+      <c r="N136" s="1" t="s">
         <v>1120</v>
-      </c>
-      <c r="M136" s="1" t="s">
-        <v>1121</v>
-      </c>
-      <c r="N136" s="1" t="s">
-        <v>1122</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
@@ -9717,43 +9717,43 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C137" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D137" t="s">
         <v>1123</v>
       </c>
-      <c r="C137" t="s">
+      <c r="E137" t="s">
+        <v>60</v>
+      </c>
+      <c r="F137" t="s">
+        <v>519</v>
+      </c>
+      <c r="G137" t="s">
+        <v>935</v>
+      </c>
+      <c r="H137" t="s">
+        <v>104</v>
+      </c>
+      <c r="I137" t="s">
         <v>1124</v>
       </c>
-      <c r="D137" t="s">
+      <c r="J137" t="s">
         <v>1125</v>
       </c>
-      <c r="E137" t="s">
-        <v>61</v>
-      </c>
-      <c r="F137" t="s">
-        <v>520</v>
-      </c>
-      <c r="G137" t="s">
-        <v>936</v>
-      </c>
-      <c r="H137" t="s">
-        <v>105</v>
-      </c>
-      <c r="I137" t="s">
+      <c r="K137" s="1" t="s">
         <v>1126</v>
       </c>
-      <c r="J137" t="s">
+      <c r="L137" s="1" t="s">
         <v>1127</v>
       </c>
-      <c r="K137" s="1" t="s">
+      <c r="M137" s="1" t="s">
         <v>1128</v>
       </c>
-      <c r="L137" s="1" t="s">
+      <c r="N137" s="1" t="s">
         <v>1129</v>
-      </c>
-      <c r="M137" s="1" t="s">
-        <v>1130</v>
-      </c>
-      <c r="N137" s="1" t="s">
-        <v>1131</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
@@ -9761,40 +9761,40 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C138" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D138" t="s">
+        <v>338</v>
+      </c>
+      <c r="E138" t="s">
+        <v>60</v>
+      </c>
+      <c r="F138" t="s">
         <v>1132</v>
       </c>
-      <c r="C138" t="s">
+      <c r="G138" t="s">
+        <v>220</v>
+      </c>
+      <c r="H138" t="s">
+        <v>255</v>
+      </c>
+      <c r="I138" t="s">
         <v>1133</v>
       </c>
-      <c r="D138" t="s">
-        <v>339</v>
-      </c>
-      <c r="E138" t="s">
-        <v>61</v>
-      </c>
-      <c r="F138" t="s">
+      <c r="K138" s="1" t="s">
         <v>1134</v>
       </c>
-      <c r="G138" t="s">
-        <v>221</v>
-      </c>
-      <c r="H138" t="s">
-        <v>256</v>
-      </c>
-      <c r="I138" t="s">
+      <c r="L138" s="1" t="s">
         <v>1135</v>
       </c>
-      <c r="K138" s="1" t="s">
+      <c r="M138" s="1" t="s">
         <v>1136</v>
       </c>
-      <c r="L138" s="1" t="s">
+      <c r="N138" s="1" t="s">
         <v>1137</v>
-      </c>
-      <c r="M138" s="1" t="s">
-        <v>1138</v>
-      </c>
-      <c r="N138" s="1" t="s">
-        <v>1139</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
@@ -9802,117 +9802,117 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C139" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D139" t="s">
+        <v>245</v>
+      </c>
+      <c r="E139" t="s">
+        <v>60</v>
+      </c>
+      <c r="F139" t="s">
         <v>1140</v>
       </c>
-      <c r="C139" t="s">
+      <c r="G139" t="s">
+        <v>13</v>
+      </c>
+      <c r="H139" t="s">
         <v>1141</v>
       </c>
-      <c r="D139" t="s">
-        <v>246</v>
-      </c>
-      <c r="E139" t="s">
-        <v>61</v>
-      </c>
-      <c r="F139" t="s">
+      <c r="I139" t="s">
         <v>1142</v>
       </c>
-      <c r="G139" t="s">
-        <v>14</v>
-      </c>
-      <c r="H139" t="s">
+      <c r="K139" s="1" t="s">
         <v>1143</v>
       </c>
-      <c r="I139" t="s">
+      <c r="L139" s="1" t="s">
         <v>1144</v>
       </c>
-      <c r="K139" s="1" t="s">
+      <c r="M139" s="1" t="s">
         <v>1145</v>
       </c>
-      <c r="L139" s="1" t="s">
+      <c r="N139" s="1" t="s">
         <v>1146</v>
-      </c>
-      <c r="M139" s="1" t="s">
-        <v>1147</v>
-      </c>
-      <c r="N139" s="1" t="s">
-        <v>1148</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B140" t="s">
+        <v>33</v>
+      </c>
+      <c r="C140" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D140" t="s">
+        <v>163</v>
+      </c>
+      <c r="E140" t="s">
+        <v>60</v>
+      </c>
+      <c r="F140" t="s">
+        <v>15</v>
+      </c>
+      <c r="G140" t="s">
+        <v>1147</v>
+      </c>
+      <c r="H140" t="s">
+        <v>156</v>
+      </c>
+      <c r="I140" t="s">
         <v>1149</v>
       </c>
-      <c r="B140" t="s">
-        <v>34</v>
-      </c>
-      <c r="C140" t="s">
+      <c r="K140" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="D140" t="s">
-        <v>164</v>
-      </c>
-      <c r="E140" t="s">
-        <v>61</v>
-      </c>
-      <c r="F140" t="s">
-        <v>16</v>
-      </c>
-      <c r="G140" t="s">
-        <v>1149</v>
-      </c>
-      <c r="H140" t="s">
-        <v>157</v>
-      </c>
-      <c r="I140" t="s">
+      <c r="L140" s="1" t="s">
         <v>1151</v>
       </c>
-      <c r="K140" s="1" t="s">
-        <v>1152</v>
-      </c>
-      <c r="L140" s="1" t="s">
-        <v>1153</v>
-      </c>
       <c r="M140" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N140" s="1"/>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C141" t="s">
+        <v>584</v>
+      </c>
+      <c r="D141" t="s">
+        <v>907</v>
+      </c>
+      <c r="E141" t="s">
+        <v>60</v>
+      </c>
+      <c r="F141" t="s">
+        <v>396</v>
+      </c>
+      <c r="G141" t="s">
+        <v>1152</v>
+      </c>
+      <c r="H141" t="s">
+        <v>192</v>
+      </c>
+      <c r="I141" t="s">
         <v>1154</v>
       </c>
-      <c r="B141" t="s">
+      <c r="J141" t="s">
         <v>1155</v>
       </c>
-      <c r="C141" t="s">
-        <v>585</v>
-      </c>
-      <c r="D141" t="s">
-        <v>908</v>
-      </c>
-      <c r="E141" t="s">
-        <v>61</v>
-      </c>
-      <c r="F141" t="s">
-        <v>397</v>
-      </c>
-      <c r="G141" t="s">
-        <v>1154</v>
-      </c>
-      <c r="H141" t="s">
-        <v>193</v>
-      </c>
-      <c r="I141" t="s">
+      <c r="K141" s="1" t="s">
         <v>1156</v>
       </c>
-      <c r="J141" t="s">
+      <c r="L141" s="1" t="s">
         <v>1157</v>
-      </c>
-      <c r="K141" s="1" t="s">
-        <v>1158</v>
-      </c>
-      <c r="L141" s="1" t="s">
-        <v>1159</v>
       </c>
       <c r="M141" s="1"/>
       <c r="N141" s="1"/>
